--- a/projects/office_calibration_modeled.xlsx
+++ b/projects/office_calibration_modeled.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20440" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$150</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$151</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -31,12 +31,17 @@
     <definedName name="TrueFalse">Lookups!$C$12:$C$13</definedName>
     <definedName name="Workflow">Lookups!$E$12:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2521" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="822">
   <si>
     <t>type</t>
   </si>
@@ -2393,30 +2398,12 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>Add Ptac</t>
-  </si>
-  <si>
-    <t>AddPTAC</t>
-  </si>
-  <si>
     <t>Heating Efficiency</t>
   </si>
   <si>
     <t>heating_efficiency</t>
   </si>
   <si>
-    <t>Heating Fuel Type</t>
-  </si>
-  <si>
-    <t>heating_fuel_type</t>
-  </si>
-  <si>
-    <t>Gas</t>
-  </si>
-  <si>
-    <t>|Gas,Electric|</t>
-  </si>
-  <si>
     <t>Cooling COP</t>
   </si>
   <si>
@@ -2505,6 +2492,21 @@
   </si>
   <si>
     <t>Gas Consumption Period 10 Modeled</t>
+  </si>
+  <si>
+    <t>Add Sys 3 - PSZ-AC Ngrid</t>
+  </si>
+  <si>
+    <t>AddSys3PSZACNgrid</t>
+  </si>
+  <si>
+    <t>Rotate Building</t>
+  </si>
+  <si>
+    <t>Number of Degrees to Rotate Building positive value is clockwise</t>
+  </si>
+  <si>
+    <t>degrees</t>
   </si>
 </sst>
 </file>
@@ -2574,7 +2576,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2635,6 +2637,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4431,7 +4439,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4534,6 +4542,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1784">
     <cellStyle name="Comma" xfId="1749" builtinId="3"/>
@@ -6624,17 +6633,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="81.77734375" customWidth="1"/>
+    <col min="1" max="1" width="81.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="28">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="28">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6642,6 +6651,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6653,17 +6667,17 @@
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="19"/>
       <c r="B1" s="28"/>
       <c r="C1" s="19"/>
@@ -6672,7 +6686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="12" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>435</v>
       </c>
@@ -6681,7 +6695,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
@@ -6692,7 +6706,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
@@ -6703,7 +6717,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="42">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
@@ -6714,7 +6728,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="46" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
@@ -6725,7 +6739,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6744,7 +6758,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -6763,7 +6777,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>458</v>
       </c>
@@ -6776,7 +6790,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="12" customFormat="1">
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
@@ -6785,7 +6799,7 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -6796,29 +6810,29 @@
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>462</v>
       </c>
@@ -6829,7 +6843,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -6840,7 +6854,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>464</v>
       </c>
@@ -6851,7 +6865,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>466</v>
       </c>
@@ -6862,7 +6876,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -6875,7 +6889,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>451</v>
       </c>
@@ -6883,11 +6897,11 @@
         <v>542</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="31" customFormat="1">
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -6904,7 +6918,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="31" t="s">
         <v>538</v>
       </c>
@@ -6916,7 +6930,7 @@
       </c>
       <c r="D24" s="35"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="31" t="s">
         <v>543</v>
       </c>
@@ -6928,7 +6942,7 @@
       </c>
       <c r="D25" s="35"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="31" t="s">
         <v>557</v>
       </c>
@@ -6940,7 +6954,7 @@
       </c>
       <c r="D26" s="35"/>
     </row>
-    <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="31" customFormat="1">
       <c r="A27" s="31" t="s">
         <v>558</v>
       </c>
@@ -6952,7 +6966,7 @@
       </c>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="31" customFormat="1">
       <c r="A28" s="31" t="s">
         <v>539</v>
       </c>
@@ -6962,7 +6976,7 @@
       <c r="C28" s="30"/>
       <c r="D28" s="35"/>
     </row>
-    <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="31" customFormat="1">
       <c r="A29" s="31" t="s">
         <v>541</v>
       </c>
@@ -6974,44 +6988,44 @@
       </c>
       <c r="D29" s="35"/>
     </row>
-    <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="31" customFormat="1">
       <c r="A30" s="31" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="B30" s="30">
         <v>1</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="D30" s="35"/>
     </row>
-    <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="31" customFormat="1">
       <c r="B31" s="26"/>
       <c r="C31" s="34"/>
       <c r="D31" s="35"/>
     </row>
-    <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="31" customFormat="1">
       <c r="B32" s="26"/>
       <c r="C32" s="34"/>
       <c r="D32" s="35"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="31"/>
       <c r="C33" s="34"/>
       <c r="D33" s="35"/>
     </row>
-    <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="31" customFormat="1">
       <c r="B34" s="26"/>
       <c r="C34" s="34"/>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="31" customFormat="1">
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
@@ -7024,7 +7038,7 @@
       <c r="D36" s="11"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -7032,7 +7046,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7049,7 +7063,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="31" customFormat="1">
       <c r="A40" s="31" t="s">
         <v>32</v>
       </c>
@@ -7061,7 +7075,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -7076,7 +7090,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" s="31" t="s">
         <v>703</v>
       </c>
@@ -7084,10 +7098,10 @@
         <v>702</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="31" customFormat="1">
       <c r="B44" s="26"/>
       <c r="D44" s="2"/>
     </row>
@@ -7105,44 +7119,49 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y223"/>
+  <dimension ref="A1:Y224"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P50" sqref="P50"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A78" sqref="A78:XFD78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" style="31" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="31" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
-    <col min="13" max="14" width="7.77734375" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" style="31"/>
-    <col min="16" max="16" width="11.44140625" style="31" customWidth="1"/>
+    <col min="13" max="14" width="7.83203125" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="31"/>
+    <col min="16" max="16" width="11.5" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
     <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.109375" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.44140625" style="31"/>
+    <col min="19" max="19" width="46.1640625" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.5" style="31"/>
     <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.44140625" style="31"/>
+    <col min="24" max="16384" width="11.5" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7177,7 +7196,7 @@
       <c r="X1" s="49"/>
       <c r="Y1" s="49"/>
     </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7193,7 +7212,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7267,7 +7286,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" s="38" customFormat="1">
       <c r="A4" s="38" t="b">
         <v>1</v>
       </c>
@@ -7286,7 +7305,7 @@
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" s="30" customFormat="1">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
@@ -7303,7 +7322,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" s="30" customFormat="1">
       <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
@@ -7320,7 +7339,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" s="38" customFormat="1">
       <c r="A7" s="38" t="b">
         <v>1</v>
       </c>
@@ -7339,7 +7358,7 @@
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25">
       <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
@@ -7364,7 +7383,7 @@
       <c r="P8" s="40"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25">
       <c r="B9" s="31" t="s">
         <v>21</v>
       </c>
@@ -7387,7 +7406,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25">
       <c r="B10" s="31" t="s">
         <v>21</v>
       </c>
@@ -7405,7 +7424,7 @@
       </c>
       <c r="I10" s="31"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25">
       <c r="B11" s="31" t="s">
         <v>21</v>
       </c>
@@ -7423,7 +7442,7 @@
       </c>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25">
       <c r="B12" s="31" t="s">
         <v>21</v>
       </c>
@@ -7441,7 +7460,7 @@
       </c>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" s="38" customFormat="1">
       <c r="A13" s="38" t="b">
         <v>1</v>
       </c>
@@ -7460,7 +7479,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" s="30" customFormat="1">
       <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
@@ -7477,10 +7496,10 @@
         <v>766</v>
       </c>
       <c r="H14" s="30">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>12717</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" s="30" customFormat="1">
       <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
@@ -7497,7 +7516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" s="30" customFormat="1">
       <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
@@ -7511,10 +7530,10 @@
         <v>65</v>
       </c>
       <c r="H16" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="30" customFormat="1">
       <c r="B17" s="30" t="s">
         <v>21</v>
       </c>
@@ -7534,7 +7553,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="30" customFormat="1">
       <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
@@ -7548,11 +7567,10 @@
         <v>64</v>
       </c>
       <c r="H18" s="42">
-        <f>1/13</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="30" customFormat="1">
       <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
@@ -7566,11 +7584,10 @@
         <v>64</v>
       </c>
       <c r="H19" s="42">
-        <f>1/13</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="30" customFormat="1">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
@@ -7584,11 +7601,10 @@
         <v>64</v>
       </c>
       <c r="H20" s="42">
-        <f t="shared" ref="H20:H30" si="0">1/13</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="30" customFormat="1">
       <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
@@ -7602,11 +7618,10 @@
         <v>64</v>
       </c>
       <c r="H21" s="42">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="30" customFormat="1">
       <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
@@ -7620,11 +7635,10 @@
         <v>64</v>
       </c>
       <c r="H22" s="42">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="30" customFormat="1">
       <c r="B23" s="30" t="s">
         <v>21</v>
       </c>
@@ -7638,11 +7652,10 @@
         <v>64</v>
       </c>
       <c r="H23" s="42">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="30" customFormat="1">
       <c r="B24" s="30" t="s">
         <v>21</v>
       </c>
@@ -7656,11 +7669,10 @@
         <v>64</v>
       </c>
       <c r="H24" s="42">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="30" customFormat="1">
       <c r="B25" s="30" t="s">
         <v>21</v>
       </c>
@@ -7674,11 +7686,10 @@
         <v>64</v>
       </c>
       <c r="H25" s="42">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="30" customFormat="1">
       <c r="B26" s="30" t="s">
         <v>21</v>
       </c>
@@ -7692,11 +7703,10 @@
         <v>64</v>
       </c>
       <c r="H26" s="42">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="30" customFormat="1">
       <c r="B27" s="30" t="s">
         <v>21</v>
       </c>
@@ -7710,11 +7720,10 @@
         <v>64</v>
       </c>
       <c r="H27" s="42">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="30" customFormat="1">
       <c r="B28" s="30" t="s">
         <v>21</v>
       </c>
@@ -7728,11 +7737,10 @@
         <v>64</v>
       </c>
       <c r="H28" s="42">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="30" customFormat="1">
       <c r="B29" s="30" t="s">
         <v>21</v>
       </c>
@@ -7746,11 +7754,10 @@
         <v>64</v>
       </c>
       <c r="H29" s="42">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="30" customFormat="1">
       <c r="B30" s="30" t="s">
         <v>21</v>
       </c>
@@ -7764,11 +7771,10 @@
         <v>64</v>
       </c>
       <c r="H30" s="42">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="38" customFormat="1">
       <c r="A31" s="38" t="b">
         <v>1</v>
       </c>
@@ -7787,7 +7793,7 @@
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="B32" s="31" t="s">
         <v>21</v>
       </c>
@@ -7803,139 +7809,135 @@
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
     </row>
-    <row r="33" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" s="38" customFormat="1">
       <c r="A33" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>785</v>
+        <v>817</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>786</v>
+        <v>818</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>786</v>
+        <v>818</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="30" t="s">
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="B34" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>785</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>786</v>
+      </c>
+      <c r="F34" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="I34" s="31"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="B35" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="31" t="s">
         <v>787</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E35" s="31" t="s">
         <v>788</v>
       </c>
-      <c r="F34" s="30" t="s">
+      <c r="F35" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="H34" s="30">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>789</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>790</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" s="30" t="s">
-        <v>791</v>
-      </c>
-      <c r="I35" s="30" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>793</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>794</v>
-      </c>
-      <c r="F36" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H36" s="30">
+      <c r="H35" s="31">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="38" t="b">
+      <c r="I35" s="31"/>
+    </row>
+    <row r="36" spans="1:17" s="38" customFormat="1">
+      <c r="A36" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B36" s="38" t="s">
+        <v>819</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="B37" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>820</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>821</v>
+      </c>
+      <c r="H37" s="31">
+        <v>10</v>
+      </c>
+      <c r="I37" s="31"/>
+    </row>
+    <row r="38" spans="1:17" s="38" customFormat="1">
+      <c r="A38" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B38" s="38" t="s">
         <v>680</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C38" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="38" t="s">
+      <c r="D38" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="E37" s="38" t="s">
+      <c r="E38" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B38" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="31" t="s">
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="B39" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="31" t="s">
         <v>683</v>
       </c>
-      <c r="E38" s="31" t="s">
+      <c r="E39" s="31" t="s">
         <v>77</v>
-      </c>
-      <c r="F38" s="31" t="s">
-        <v>619</v>
-      </c>
-      <c r="H38" s="31">
-        <v>0.4</v>
-      </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="2"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B39" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="31" t="s">
-        <v>667</v>
-      </c>
-      <c r="E39" s="31" t="s">
-        <v>79</v>
       </c>
       <c r="F39" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="G39" s="31" t="s">
-        <v>668</v>
-      </c>
       <c r="H39" s="31">
-        <v>30</v>
+        <v>0.4</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
@@ -7946,24 +7948,24 @@
       <c r="P39" s="40"/>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17">
       <c r="B40" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F40" s="31" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G40" s="31" t="s">
         <v>668</v>
       </c>
-      <c r="H40" s="31" t="s">
-        <v>669</v>
+      <c r="H40" s="31">
+        <v>30</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -7974,68 +7976,62 @@
       <c r="P40" s="40"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="38" t="b">
+    <row r="41" spans="1:17">
+      <c r="B41" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>672</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>668</v>
+      </c>
+      <c r="H41" s="31" t="s">
+        <v>669</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:17" s="38" customFormat="1">
+      <c r="A42" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B41" s="38" t="s">
+      <c r="B42" s="38" t="s">
         <v>687</v>
       </c>
-      <c r="C41" s="38" t="s">
+      <c r="C42" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="38" t="s">
+      <c r="D42" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="E41" s="38" t="s">
+      <c r="E42" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B42" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="31" t="s">
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="B43" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="31" t="s">
         <v>684</v>
       </c>
-      <c r="E42" s="31" t="s">
+      <c r="E43" s="31" t="s">
         <v>77</v>
-      </c>
-      <c r="F42" s="31" t="s">
-        <v>619</v>
-      </c>
-      <c r="H42" s="31">
-        <v>0.4</v>
-      </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="2"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B43" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="31" t="s">
-        <v>667</v>
-      </c>
-      <c r="E43" s="31" t="s">
-        <v>79</v>
       </c>
       <c r="F43" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="G43" s="31" t="s">
-        <v>668</v>
-      </c>
       <c r="H43" s="31">
-        <v>30</v>
+        <v>0.4</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -8046,24 +8042,24 @@
       <c r="P43" s="40"/>
       <c r="Q43" s="2"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17">
       <c r="B44" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F44" s="31" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G44" s="31" t="s">
         <v>668</v>
       </c>
-      <c r="H44" s="31" t="s">
-        <v>82</v>
+      <c r="H44" s="31">
+        <v>30</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
@@ -8074,68 +8070,62 @@
       <c r="P44" s="40"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="38" t="b">
+    <row r="45" spans="1:17">
+      <c r="B45" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>673</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>668</v>
+      </c>
+      <c r="H45" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:17" s="38" customFormat="1">
+      <c r="A46" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B45" s="38" t="s">
+      <c r="B46" s="38" t="s">
         <v>688</v>
       </c>
-      <c r="C45" s="38" t="s">
+      <c r="C46" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="38" t="s">
+      <c r="D46" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="E45" s="38" t="s">
+      <c r="E46" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B46" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="31" t="s">
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="B47" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="31" t="s">
         <v>685</v>
       </c>
-      <c r="E46" s="31" t="s">
+      <c r="E47" s="31" t="s">
         <v>77</v>
-      </c>
-      <c r="F46" s="31" t="s">
-        <v>619</v>
-      </c>
-      <c r="H46" s="31">
-        <v>0.4</v>
-      </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="2"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B47" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="31" t="s">
-        <v>667</v>
-      </c>
-      <c r="E47" s="31" t="s">
-        <v>79</v>
       </c>
       <c r="F47" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="G47" s="31" t="s">
-        <v>668</v>
-      </c>
       <c r="H47" s="31">
-        <v>30</v>
+        <v>0.4</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -8146,24 +8136,24 @@
       <c r="P47" s="40"/>
       <c r="Q47" s="2"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17">
       <c r="B48" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F48" s="31" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G48" s="31" t="s">
         <v>668</v>
       </c>
-      <c r="H48" s="31" t="s">
-        <v>670</v>
+      <c r="H48" s="31">
+        <v>30</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -8174,68 +8164,62 @@
       <c r="P48" s="40"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="38" t="b">
+    <row r="49" spans="1:17">
+      <c r="B49" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>674</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="G49" s="31" t="s">
+        <v>668</v>
+      </c>
+      <c r="H49" s="31" t="s">
+        <v>670</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" spans="1:17" s="38" customFormat="1">
+      <c r="A50" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B49" s="38" t="s">
+      <c r="B50" s="38" t="s">
         <v>681</v>
       </c>
-      <c r="C49" s="38" t="s">
+      <c r="C50" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="38" t="s">
+      <c r="D50" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="E49" s="38" t="s">
+      <c r="E50" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B50" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="31" t="s">
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="B51" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="31" t="s">
         <v>686</v>
       </c>
-      <c r="E50" s="31" t="s">
+      <c r="E51" s="31" t="s">
         <v>77</v>
-      </c>
-      <c r="F50" s="31" t="s">
-        <v>619</v>
-      </c>
-      <c r="H50" s="31">
-        <v>0.4</v>
-      </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="2"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B51" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="31" t="s">
-        <v>667</v>
-      </c>
-      <c r="E51" s="31" t="s">
-        <v>79</v>
       </c>
       <c r="F51" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="G51" s="31" t="s">
-        <v>668</v>
-      </c>
       <c r="H51" s="31">
-        <v>30</v>
+        <v>0.4</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -8246,24 +8230,24 @@
       <c r="P51" s="40"/>
       <c r="Q51" s="2"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17">
       <c r="B52" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F52" s="31" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G52" s="31" t="s">
         <v>668</v>
       </c>
-      <c r="H52" s="31" t="s">
-        <v>671</v>
+      <c r="H52" s="31">
+        <v>30</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
@@ -8274,488 +8258,491 @@
       <c r="P52" s="40"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="38" t="b">
+    <row r="53" spans="1:17">
+      <c r="B53" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>675</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F53" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="G53" s="31" t="s">
+        <v>668</v>
+      </c>
+      <c r="H53" s="31" t="s">
+        <v>671</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" spans="1:17" s="38" customFormat="1">
+      <c r="A54" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B53" s="38" t="s">
+      <c r="B54" s="38" t="s">
         <v>691</v>
       </c>
-      <c r="C53" s="38" t="s">
+      <c r="C54" s="38" t="s">
         <v>690</v>
       </c>
-      <c r="D53" s="38" t="s">
+      <c r="D54" s="38" t="s">
         <v>690</v>
       </c>
-      <c r="E53" s="38" t="s">
+      <c r="E54" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B54" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" s="31" t="s">
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="B55" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="31" t="s">
         <v>693</v>
       </c>
-      <c r="E54" s="31" t="s">
+      <c r="E55" s="31" t="s">
         <v>692</v>
-      </c>
-      <c r="F54" s="31" t="s">
-        <v>618</v>
-      </c>
-      <c r="H54" s="31" t="s">
-        <v>704</v>
-      </c>
-      <c r="I54" s="31"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B55" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="31" t="s">
-        <v>695</v>
-      </c>
-      <c r="E55" s="31" t="s">
-        <v>694</v>
       </c>
       <c r="F55" s="31" t="s">
         <v>618</v>
       </c>
       <c r="H55" s="31" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17">
       <c r="B56" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F56" s="31" t="s">
         <v>618</v>
       </c>
-      <c r="H56" s="41" t="s">
-        <v>701</v>
+      <c r="H56" s="31" t="s">
+        <v>705</v>
       </c>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17">
       <c r="B57" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F57" s="31" t="s">
         <v>618</v>
       </c>
       <c r="H57" s="41" t="s">
+        <v>701</v>
+      </c>
+      <c r="I57" s="31"/>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="B58" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>699</v>
+      </c>
+      <c r="E58" s="31" t="s">
+        <v>697</v>
+      </c>
+      <c r="F58" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="H58" s="41" t="s">
         <v>700</v>
       </c>
-      <c r="I57" s="31"/>
-    </row>
-    <row r="58" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="38" t="b">
+      <c r="I58" s="31"/>
+    </row>
+    <row r="59" spans="1:17" s="38" customFormat="1">
+      <c r="A59" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B58" s="38" t="s">
+      <c r="B59" s="38" t="s">
         <v>707</v>
       </c>
-      <c r="C58" s="38" t="s">
+      <c r="C59" s="38" t="s">
         <v>706</v>
       </c>
-      <c r="D58" s="38" t="s">
+      <c r="D59" s="38" t="s">
         <v>706</v>
       </c>
-      <c r="E58" s="38" t="s">
+      <c r="E59" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-    </row>
-    <row r="59" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="30" t="b">
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+    </row>
+    <row r="60" spans="1:17" s="50" customFormat="1">
+      <c r="A60" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="B59" s="30" t="s">
+      <c r="B60" s="50" t="s">
         <v>774</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="C60" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="D59" s="30" t="s">
+      <c r="D60" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="E59" s="30" t="s">
+      <c r="E60" s="50" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="43" t="s">
+    <row r="61" spans="1:17" s="43" customFormat="1">
+      <c r="B61" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="43" t="s">
+      <c r="D61" s="43" t="s">
         <v>775</v>
       </c>
-      <c r="E60" s="43" t="s">
+      <c r="E61" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="F60" s="43" t="s">
+      <c r="F61" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H60" s="43">
+      <c r="H61" s="43">
         <v>0.4</v>
       </c>
-      <c r="J60" s="43">
+      <c r="J61" s="43">
         <v>0.3</v>
       </c>
-      <c r="K60" s="43">
+      <c r="K61" s="43">
         <v>0.5</v>
       </c>
-      <c r="L60" s="43">
+      <c r="L61" s="43">
         <v>0.4</v>
       </c>
-      <c r="M60" s="43">
-        <f>(K60+J60)/6</f>
+      <c r="M61" s="43">
+        <f>(K61+J61)/6</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="N60" s="43">
+      <c r="N61" s="43">
         <v>0.01</v>
       </c>
-      <c r="Q60" s="43" t="s">
+      <c r="Q61" s="43" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" s="30" t="s">
+    <row r="62" spans="1:17" s="30" customFormat="1">
+      <c r="B62" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E61" s="30" t="s">
+      <c r="E62" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F61" s="30" t="s">
+      <c r="F62" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H61" s="30">
+      <c r="H62" s="30">
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="30" t="s">
+    <row r="63" spans="1:17" s="30" customFormat="1">
+      <c r="B63" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="E62" s="30" t="s">
+      <c r="E63" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="F62" s="30" t="s">
+      <c r="F63" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H62" s="30" t="s">
+      <c r="H63" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="I62" s="30" t="s">
+      <c r="I63" s="30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="30" t="b">
+    <row r="64" spans="1:17" s="50" customFormat="1">
+      <c r="A64" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="B63" s="30" t="s">
+      <c r="B64" s="50" t="s">
         <v>777</v>
       </c>
-      <c r="C63" s="30" t="s">
+      <c r="C64" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="D63" s="30" t="s">
+      <c r="D64" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="E63" s="30" t="s">
+      <c r="E64" s="50" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="43" t="s">
+    <row r="65" spans="1:17" s="43" customFormat="1">
+      <c r="B65" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="43" t="s">
+      <c r="D65" s="43" t="s">
         <v>778</v>
       </c>
-      <c r="E64" s="43" t="s">
+      <c r="E65" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="F64" s="43" t="s">
+      <c r="F65" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H64" s="43">
+      <c r="H65" s="43">
         <v>0.4</v>
       </c>
-      <c r="J64" s="43">
+      <c r="J65" s="43">
         <v>0.3</v>
       </c>
-      <c r="K64" s="43">
+      <c r="K65" s="43">
         <v>0.5</v>
       </c>
-      <c r="L64" s="43">
+      <c r="L65" s="43">
         <v>0.4</v>
       </c>
-      <c r="M64" s="43">
-        <f>(K64+J64)/6</f>
+      <c r="M65" s="43">
+        <f>(K65+J65)/6</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="N64" s="43">
+      <c r="N65" s="43">
         <v>0.01</v>
       </c>
-      <c r="Q64" s="43" t="s">
+      <c r="Q65" s="43" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="65" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D65" s="30" t="s">
+    <row r="66" spans="1:17" s="30" customFormat="1">
+      <c r="B66" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E65" s="30" t="s">
+      <c r="E66" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F65" s="30" t="s">
+      <c r="F66" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H65" s="30">
+      <c r="H66" s="30">
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="30" t="s">
+    <row r="67" spans="1:17" s="30" customFormat="1">
+      <c r="B67" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="E66" s="30" t="s">
+      <c r="E67" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="F66" s="30" t="s">
+      <c r="F67" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H66" s="30" t="s">
+      <c r="H67" s="30" t="s">
         <v>670</v>
       </c>
-      <c r="I66" s="30" t="s">
+      <c r="I67" s="30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="30" t="b">
+    <row r="68" spans="1:17" s="50" customFormat="1">
+      <c r="A68" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="B67" s="30" t="s">
+      <c r="B68" s="50" t="s">
         <v>779</v>
       </c>
-      <c r="C67" s="30" t="s">
+      <c r="C68" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="D67" s="30" t="s">
+      <c r="D68" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="E67" s="30" t="s">
+      <c r="E68" s="50" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="43" t="s">
+    <row r="69" spans="1:17" s="43" customFormat="1">
+      <c r="B69" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D68" s="43" t="s">
+      <c r="D69" s="43" t="s">
         <v>780</v>
       </c>
-      <c r="E68" s="43" t="s">
+      <c r="E69" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="F68" s="43" t="s">
+      <c r="F69" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H68" s="43">
+      <c r="H69" s="43">
         <v>0.4</v>
       </c>
-      <c r="J68" s="43">
+      <c r="J69" s="43">
         <v>0.3</v>
       </c>
-      <c r="K68" s="43">
+      <c r="K69" s="43">
         <v>0.5</v>
       </c>
-      <c r="L68" s="43">
+      <c r="L69" s="43">
         <v>0.4</v>
       </c>
-      <c r="M68" s="43">
-        <f>(K68+J68)/6</f>
+      <c r="M69" s="43">
+        <f>(K69+J69)/6</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="N68" s="43">
+      <c r="N69" s="43">
         <v>0.01</v>
       </c>
-      <c r="Q68" s="43" t="s">
+      <c r="Q69" s="43" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="69" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D69" s="30" t="s">
+    <row r="70" spans="1:17" s="30" customFormat="1">
+      <c r="B70" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E69" s="30" t="s">
+      <c r="E70" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F69" s="30" t="s">
+      <c r="F70" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H69" s="30">
+      <c r="H70" s="30">
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70" s="30" t="s">
+    <row r="71" spans="1:17" s="30" customFormat="1">
+      <c r="B71" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="E70" s="30" t="s">
+      <c r="E71" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="F70" s="30" t="s">
+      <c r="F71" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H70" s="30" t="s">
+      <c r="H71" s="30" t="s">
         <v>671</v>
       </c>
-      <c r="I70" s="30" t="s">
+      <c r="I71" s="30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="30" t="b">
+    <row r="72" spans="1:17" s="50" customFormat="1">
+      <c r="A72" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="B71" s="30" t="s">
+      <c r="B72" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C71" s="30" t="s">
+      <c r="C72" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="D71" s="30" t="s">
+      <c r="D72" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="E71" s="30" t="s">
+      <c r="E72" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="P71" s="31"/>
-    </row>
-    <row r="72" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72" s="30" t="s">
+    </row>
+    <row r="73" spans="1:17" s="30" customFormat="1">
+      <c r="B73" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E72" s="30" t="s">
+      <c r="E73" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="F72" s="30" t="s">
+      <c r="F73" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H72" s="30" t="s">
+      <c r="H73" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="I72" s="30" t="s">
+      <c r="I73" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="O72" s="31"/>
-    </row>
-    <row r="73" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="43" t="s">
+      <c r="O73" s="31"/>
+    </row>
+    <row r="74" spans="1:17" s="43" customFormat="1">
+      <c r="B74" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="44" t="s">
+      <c r="D74" s="44" t="s">
         <v>781</v>
       </c>
-      <c r="E73" s="43" t="s">
+      <c r="E74" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="F73" s="43" t="s">
+      <c r="F74" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H73" s="43">
-        <v>0</v>
-      </c>
-      <c r="J73" s="45">
+      <c r="H74" s="43">
+        <v>0</v>
+      </c>
+      <c r="J74" s="45">
         <v>-100</v>
       </c>
-      <c r="K73" s="45">
+      <c r="K74" s="45">
         <v>100</v>
       </c>
-      <c r="L73" s="45">
-        <v>0</v>
-      </c>
-      <c r="M73" s="45">
-        <f>(K73-J73)/6</f>
+      <c r="L74" s="45">
+        <v>0</v>
+      </c>
+      <c r="M74" s="45">
+        <f>(K74-J74)/6</f>
         <v>33.333333333333336</v>
       </c>
-      <c r="N73" s="45">
+      <c r="N74" s="45">
         <v>2.5</v>
       </c>
-      <c r="Q73" s="43" t="s">
+      <c r="Q74" s="43" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="74" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D74" s="30" t="s">
+    <row r="75" spans="1:17" s="30" customFormat="1">
+      <c r="B75" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="E74" s="30" t="s">
+      <c r="E75" s="30" t="s">
         <v>48</v>
-      </c>
-      <c r="F74" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H74" s="30">
-        <v>0</v>
-      </c>
-      <c r="O74" s="31"/>
-    </row>
-    <row r="75" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="E75" s="30" t="s">
-        <v>58</v>
       </c>
       <c r="F75" s="30" t="s">
         <v>64</v>
@@ -8765,156 +8752,137 @@
       </c>
       <c r="O75" s="31"/>
     </row>
-    <row r="76" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" s="30" customFormat="1">
       <c r="B76" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D76" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F76" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H76" s="30">
+        <v>0</v>
+      </c>
+      <c r="O76" s="31"/>
+    </row>
+    <row r="77" spans="1:17" s="30" customFormat="1">
+      <c r="B77" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E76" s="30" t="s">
+      <c r="E77" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="F76" s="30" t="s">
+      <c r="F77" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="H76" s="30">
+      <c r="H77" s="30">
         <v>1</v>
       </c>
-      <c r="O76" s="31"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A77" s="30" t="b">
+      <c r="O77" s="31"/>
+    </row>
+    <row r="78" spans="1:17" s="50" customFormat="1">
+      <c r="A78" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="B77" s="30" t="s">
+      <c r="B78" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C77" s="30" t="s">
+      <c r="C78" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="D77" s="30" t="s">
+      <c r="D78" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="E77" s="31" t="s">
+      <c r="E78" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="F77" s="30"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="30"/>
-      <c r="I77" s="30"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-      <c r="Q77" s="40"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A78" s="30"/>
-      <c r="B78" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C78" s="30"/>
-      <c r="D78" s="30" t="s">
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="30"/>
+      <c r="B79" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E78" s="30" t="s">
+      <c r="E79" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="F78" s="30" t="s">
+      <c r="F79" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="G78" s="30"/>
-      <c r="H78" s="30" t="s">
+      <c r="G79" s="30"/>
+      <c r="H79" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="I78" s="30" t="s">
+      <c r="I79" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
-      <c r="P78" s="40"/>
-    </row>
-    <row r="79" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="43" t="s">
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="P79" s="40"/>
+    </row>
+    <row r="80" spans="1:17" s="43" customFormat="1">
+      <c r="B80" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="43" t="s">
+      <c r="D80" s="43" t="s">
         <v>782</v>
       </c>
-      <c r="E79" s="43" t="s">
+      <c r="E80" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="F79" s="43" t="s">
+      <c r="F80" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H79" s="43">
-        <v>0</v>
-      </c>
-      <c r="I79" s="46"/>
-      <c r="J79" s="45">
+      <c r="H80" s="43">
+        <v>0</v>
+      </c>
+      <c r="I80" s="46"/>
+      <c r="J80" s="45">
         <v>-40</v>
       </c>
-      <c r="K79" s="45">
+      <c r="K80" s="45">
         <v>40</v>
       </c>
-      <c r="L79" s="45">
+      <c r="L80" s="45">
         <v>-1</v>
       </c>
-      <c r="M79" s="45">
-        <f>(K79-J79)/6</f>
+      <c r="M80" s="45">
+        <f>(K80-J80)/6</f>
         <v>13.333333333333334</v>
       </c>
-      <c r="N79" s="45">
+      <c r="N80" s="45">
         <v>2.5</v>
       </c>
-      <c r="P79" s="47"/>
-      <c r="Q79" s="43" t="s">
+      <c r="P80" s="47"/>
+      <c r="Q80" s="43" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A80" s="30"/>
-      <c r="B80" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C80" s="30"/>
-      <c r="D80" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="E80" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F80" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G80" s="30"/>
-      <c r="H80" s="30">
-        <v>0</v>
-      </c>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="3"/>
-      <c r="P80" s="40"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16">
       <c r="A81" s="30"/>
       <c r="B81" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C81" s="30"/>
-      <c r="D81" s="30" t="s">
-        <v>49</v>
+      <c r="D81" s="48" t="s">
+        <v>47</v>
       </c>
       <c r="E81" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F81" s="30" t="s">
         <v>64</v>
@@ -8930,20 +8898,20 @@
       <c r="N81" s="3"/>
       <c r="P81" s="40"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16">
       <c r="A82" s="30"/>
       <c r="B82" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C82" s="30"/>
       <c r="D82" s="30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E82" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F82" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G82" s="30"/>
       <c r="H82" s="30">
@@ -8956,24 +8924,24 @@
       <c r="N82" s="3"/>
       <c r="P82" s="40"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16">
       <c r="A83" s="30"/>
       <c r="B83" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C83" s="30"/>
       <c r="D83" s="30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E83" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F83" s="30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G83" s="30"/>
-      <c r="H83" s="30" t="b">
-        <v>1</v>
+      <c r="H83" s="30">
+        <v>0</v>
       </c>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
@@ -8982,24 +8950,24 @@
       <c r="N83" s="3"/>
       <c r="P83" s="40"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16">
       <c r="A84" s="30"/>
       <c r="B84" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C84" s="30"/>
       <c r="D84" s="30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F84" s="30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G84" s="30"/>
-      <c r="H84" s="30">
-        <v>15</v>
+      <c r="H84" s="30" t="b">
+        <v>1</v>
       </c>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
@@ -9008,24 +8976,24 @@
       <c r="N84" s="3"/>
       <c r="P84" s="40"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16">
       <c r="A85" s="30"/>
       <c r="B85" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C85" s="30"/>
       <c r="D85" s="30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E85" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F85" s="30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G85" s="30"/>
       <c r="H85" s="30">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
@@ -9034,24 +9002,24 @@
       <c r="N85" s="3"/>
       <c r="P85" s="40"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16">
       <c r="A86" s="30"/>
       <c r="B86" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C86" s="30"/>
       <c r="D86" s="30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E86" s="30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F86" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G86" s="30"/>
       <c r="H86" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
@@ -9060,561 +9028,592 @@
       <c r="N86" s="3"/>
       <c r="P86" s="40"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16">
+      <c r="A87" s="30"/>
+      <c r="B87" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E87" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F87" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G87" s="30"/>
+      <c r="H87" s="30">
+        <v>1</v>
+      </c>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="P87" s="40"/>
+    </row>
+    <row r="88" spans="1:16">
       <c r="H88" s="31"/>
       <c r="I88" s="31"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16">
       <c r="H89" s="31"/>
       <c r="I89" s="31"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16">
       <c r="H90" s="31"/>
       <c r="I90" s="31"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16">
       <c r="H91" s="31"/>
       <c r="I91" s="31"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16">
       <c r="H92" s="31"/>
       <c r="I92" s="31"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16">
       <c r="H93" s="31"/>
       <c r="I93" s="31"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16">
       <c r="H94" s="31"/>
       <c r="I94" s="31"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16">
       <c r="H95" s="31"/>
       <c r="I95" s="31"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16">
       <c r="H96" s="31"/>
       <c r="I96" s="31"/>
     </row>
-    <row r="97" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="8:9">
       <c r="H97" s="31"/>
       <c r="I97" s="31"/>
     </row>
-    <row r="98" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="8:9">
       <c r="H98" s="31"/>
       <c r="I98" s="31"/>
     </row>
-    <row r="99" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="8:9">
       <c r="H99" s="31"/>
       <c r="I99" s="31"/>
     </row>
-    <row r="100" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="8:9">
       <c r="H100" s="31"/>
       <c r="I100" s="31"/>
     </row>
-    <row r="101" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="8:9">
       <c r="H101" s="31"/>
       <c r="I101" s="31"/>
     </row>
-    <row r="102" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="8:9">
       <c r="H102" s="31"/>
       <c r="I102" s="31"/>
     </row>
-    <row r="103" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="8:9">
       <c r="H103" s="31"/>
       <c r="I103" s="31"/>
     </row>
-    <row r="104" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="8:9">
       <c r="H104" s="31"/>
       <c r="I104" s="31"/>
     </row>
-    <row r="105" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="8:9">
       <c r="H105" s="31"/>
       <c r="I105" s="31"/>
     </row>
-    <row r="106" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="8:9">
       <c r="H106" s="31"/>
       <c r="I106" s="31"/>
     </row>
-    <row r="107" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="8:9">
       <c r="H107" s="31"/>
       <c r="I107" s="31"/>
     </row>
-    <row r="108" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="8:9">
       <c r="H108" s="31"/>
       <c r="I108" s="31"/>
     </row>
-    <row r="109" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="8:9">
       <c r="H109" s="31"/>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="8:9">
       <c r="H110" s="31"/>
       <c r="I110" s="31"/>
     </row>
-    <row r="111" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="8:9">
       <c r="H111" s="31"/>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="8:9">
       <c r="H112" s="31"/>
       <c r="I112" s="31"/>
     </row>
-    <row r="113" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="8:9">
       <c r="H113" s="31"/>
       <c r="I113" s="31"/>
     </row>
-    <row r="114" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="8:9">
       <c r="H114" s="31"/>
       <c r="I114" s="31"/>
     </row>
-    <row r="115" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="8:9">
       <c r="H115" s="31"/>
       <c r="I115" s="31"/>
     </row>
-    <row r="116" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="8:9">
       <c r="H116" s="31"/>
       <c r="I116" s="31"/>
     </row>
-    <row r="117" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="8:9">
       <c r="H117" s="31"/>
       <c r="I117" s="31"/>
     </row>
-    <row r="118" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="8:9">
       <c r="H118" s="31"/>
       <c r="I118" s="31"/>
     </row>
-    <row r="119" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="8:9">
       <c r="H119" s="31"/>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="8:9">
       <c r="H120" s="31"/>
       <c r="I120" s="31"/>
     </row>
-    <row r="121" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="8:9">
       <c r="H121" s="31"/>
       <c r="I121" s="31"/>
     </row>
-    <row r="122" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="8:9">
       <c r="H122" s="31"/>
       <c r="I122" s="31"/>
     </row>
-    <row r="123" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="8:9">
       <c r="H123" s="31"/>
       <c r="I123" s="31"/>
     </row>
-    <row r="124" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="8:9">
       <c r="H124" s="31"/>
       <c r="I124" s="31"/>
     </row>
-    <row r="125" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="8:9">
       <c r="H125" s="31"/>
       <c r="I125" s="31"/>
     </row>
-    <row r="126" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="8:9">
       <c r="H126" s="31"/>
       <c r="I126" s="31"/>
     </row>
-    <row r="127" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="8:9">
       <c r="H127" s="31"/>
       <c r="I127" s="31"/>
     </row>
-    <row r="128" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="8:9">
       <c r="H128" s="31"/>
       <c r="I128" s="31"/>
     </row>
-    <row r="129" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="8:9">
       <c r="H129" s="31"/>
       <c r="I129" s="31"/>
     </row>
-    <row r="130" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="8:9">
       <c r="H130" s="31"/>
       <c r="I130" s="31"/>
     </row>
-    <row r="131" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="8:9">
       <c r="H131" s="31"/>
       <c r="I131" s="31"/>
     </row>
-    <row r="132" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="8:9">
       <c r="H132" s="31"/>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="8:9">
       <c r="H133" s="31"/>
       <c r="I133" s="31"/>
     </row>
-    <row r="134" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="8:9">
       <c r="H134" s="31"/>
       <c r="I134" s="31"/>
     </row>
-    <row r="135" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="8:9">
       <c r="H135" s="31"/>
       <c r="I135" s="31"/>
     </row>
-    <row r="136" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="8:9">
       <c r="H136" s="31"/>
       <c r="I136" s="31"/>
     </row>
-    <row r="137" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="8:9">
       <c r="H137" s="31"/>
       <c r="I137" s="31"/>
     </row>
-    <row r="138" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="8:9">
       <c r="H138" s="31"/>
       <c r="I138" s="31"/>
     </row>
-    <row r="139" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="8:9">
       <c r="H139" s="31"/>
       <c r="I139" s="31"/>
     </row>
-    <row r="140" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="8:9">
       <c r="H140" s="31"/>
       <c r="I140" s="31"/>
     </row>
-    <row r="141" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="8:9">
       <c r="H141" s="31"/>
       <c r="I141" s="31"/>
     </row>
-    <row r="142" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="8:9">
       <c r="H142" s="31"/>
       <c r="I142" s="31"/>
     </row>
-    <row r="143" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="8:9">
       <c r="H143" s="31"/>
       <c r="I143" s="31"/>
     </row>
-    <row r="144" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="8:9">
       <c r="H144" s="31"/>
       <c r="I144" s="31"/>
     </row>
-    <row r="145" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="8:9">
       <c r="H145" s="31"/>
       <c r="I145" s="31"/>
     </row>
-    <row r="146" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="8:9">
       <c r="H146" s="31"/>
       <c r="I146" s="31"/>
     </row>
-    <row r="147" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="8:9">
       <c r="H147" s="31"/>
       <c r="I147" s="31"/>
     </row>
-    <row r="148" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="8:9">
       <c r="H148" s="31"/>
       <c r="I148" s="31"/>
     </row>
-    <row r="149" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="8:9">
       <c r="H149" s="31"/>
       <c r="I149" s="31"/>
     </row>
-    <row r="150" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="8:9">
       <c r="H150" s="31"/>
       <c r="I150" s="31"/>
     </row>
-    <row r="151" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="8:9">
       <c r="H151" s="31"/>
       <c r="I151" s="31"/>
     </row>
-    <row r="152" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="8:9">
       <c r="H152" s="31"/>
       <c r="I152" s="31"/>
     </row>
-    <row r="153" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="8:9">
       <c r="H153" s="31"/>
       <c r="I153" s="31"/>
     </row>
-    <row r="154" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="8:9">
       <c r="H154" s="31"/>
       <c r="I154" s="31"/>
     </row>
-    <row r="155" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="8:9">
       <c r="H155" s="31"/>
       <c r="I155" s="31"/>
     </row>
-    <row r="156" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="8:9">
       <c r="H156" s="31"/>
       <c r="I156" s="31"/>
     </row>
-    <row r="157" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="8:9">
       <c r="H157" s="31"/>
       <c r="I157" s="31"/>
     </row>
-    <row r="158" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="8:9">
       <c r="H158" s="31"/>
       <c r="I158" s="31"/>
     </row>
-    <row r="159" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="8:9">
       <c r="H159" s="31"/>
       <c r="I159" s="31"/>
     </row>
-    <row r="160" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="8:9">
       <c r="H160" s="31"/>
       <c r="I160" s="31"/>
     </row>
-    <row r="161" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="8:9">
       <c r="H161" s="31"/>
       <c r="I161" s="31"/>
     </row>
-    <row r="162" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="8:9">
       <c r="H162" s="31"/>
       <c r="I162" s="31"/>
     </row>
-    <row r="163" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="8:9">
       <c r="H163" s="31"/>
       <c r="I163" s="31"/>
     </row>
-    <row r="164" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="8:9">
       <c r="H164" s="31"/>
       <c r="I164" s="31"/>
     </row>
-    <row r="165" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="8:9">
       <c r="H165" s="31"/>
       <c r="I165" s="31"/>
     </row>
-    <row r="166" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="8:9">
       <c r="H166" s="31"/>
       <c r="I166" s="31"/>
     </row>
-    <row r="167" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="8:9">
       <c r="H167" s="31"/>
       <c r="I167" s="31"/>
     </row>
-    <row r="168" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="8:9">
       <c r="H168" s="31"/>
       <c r="I168" s="31"/>
     </row>
-    <row r="169" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="8:9">
       <c r="H169" s="31"/>
       <c r="I169" s="31"/>
     </row>
-    <row r="170" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="8:9">
       <c r="H170" s="31"/>
       <c r="I170" s="31"/>
     </row>
-    <row r="171" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="8:9">
       <c r="H171" s="31"/>
       <c r="I171" s="31"/>
     </row>
-    <row r="172" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="8:9">
       <c r="H172" s="31"/>
       <c r="I172" s="31"/>
     </row>
-    <row r="173" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="8:9">
       <c r="H173" s="31"/>
       <c r="I173" s="31"/>
     </row>
-    <row r="174" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="8:9">
       <c r="H174" s="31"/>
       <c r="I174" s="31"/>
     </row>
-    <row r="175" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="8:9">
       <c r="H175" s="31"/>
       <c r="I175" s="31"/>
     </row>
-    <row r="176" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="8:9">
       <c r="H176" s="31"/>
       <c r="I176" s="31"/>
     </row>
-    <row r="177" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="8:9">
       <c r="H177" s="31"/>
       <c r="I177" s="31"/>
     </row>
-    <row r="178" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="8:9">
       <c r="H178" s="31"/>
       <c r="I178" s="31"/>
     </row>
-    <row r="179" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="8:9">
       <c r="H179" s="31"/>
       <c r="I179" s="31"/>
     </row>
-    <row r="180" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="8:9">
       <c r="H180" s="31"/>
       <c r="I180" s="31"/>
     </row>
-    <row r="181" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="8:9">
       <c r="H181" s="31"/>
       <c r="I181" s="31"/>
     </row>
-    <row r="182" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="8:9">
       <c r="H182" s="31"/>
       <c r="I182" s="31"/>
     </row>
-    <row r="183" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="8:9">
       <c r="H183" s="31"/>
       <c r="I183" s="31"/>
     </row>
-    <row r="184" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="8:9">
       <c r="H184" s="31"/>
       <c r="I184" s="31"/>
     </row>
-    <row r="185" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="8:9">
       <c r="H185" s="31"/>
       <c r="I185" s="31"/>
     </row>
-    <row r="186" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="8:9">
       <c r="H186" s="31"/>
       <c r="I186" s="31"/>
     </row>
-    <row r="187" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="8:9">
       <c r="H187" s="31"/>
       <c r="I187" s="31"/>
     </row>
-    <row r="188" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="8:9">
       <c r="H188" s="31"/>
       <c r="I188" s="31"/>
     </row>
-    <row r="189" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="8:9">
       <c r="H189" s="31"/>
       <c r="I189" s="31"/>
     </row>
-    <row r="190" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="8:9">
       <c r="H190" s="31"/>
       <c r="I190" s="31"/>
     </row>
-    <row r="191" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="8:9">
       <c r="H191" s="31"/>
       <c r="I191" s="31"/>
     </row>
-    <row r="192" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="8:9">
       <c r="H192" s="31"/>
       <c r="I192" s="31"/>
     </row>
-    <row r="193" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="8:9">
       <c r="H193" s="31"/>
       <c r="I193" s="31"/>
     </row>
-    <row r="194" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="8:9">
       <c r="H194" s="31"/>
       <c r="I194" s="31"/>
     </row>
-    <row r="195" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="8:9">
       <c r="H195" s="31"/>
       <c r="I195" s="31"/>
     </row>
-    <row r="196" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="8:9">
       <c r="H196" s="31"/>
       <c r="I196" s="31"/>
     </row>
-    <row r="197" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="8:9">
       <c r="H197" s="31"/>
       <c r="I197" s="31"/>
     </row>
-    <row r="198" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="8:9">
       <c r="H198" s="31"/>
       <c r="I198" s="31"/>
     </row>
-    <row r="199" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="8:9">
       <c r="H199" s="31"/>
       <c r="I199" s="31"/>
     </row>
-    <row r="200" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="8:9">
       <c r="H200" s="31"/>
       <c r="I200" s="31"/>
     </row>
-    <row r="201" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="8:9">
       <c r="H201" s="31"/>
       <c r="I201" s="31"/>
     </row>
-    <row r="202" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="8:9">
       <c r="H202" s="31"/>
       <c r="I202" s="31"/>
     </row>
-    <row r="203" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="8:9">
       <c r="H203" s="31"/>
       <c r="I203" s="31"/>
     </row>
-    <row r="204" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="8:9">
       <c r="H204" s="31"/>
       <c r="I204" s="31"/>
     </row>
-    <row r="205" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="8:9">
       <c r="H205" s="31"/>
       <c r="I205" s="31"/>
     </row>
-    <row r="206" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="8:9">
       <c r="H206" s="31"/>
       <c r="I206" s="31"/>
     </row>
-    <row r="207" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="8:9">
       <c r="H207" s="31"/>
       <c r="I207" s="31"/>
     </row>
-    <row r="208" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="8:9">
       <c r="H208" s="31"/>
       <c r="I208" s="31"/>
     </row>
-    <row r="209" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="8:9">
       <c r="H209" s="31"/>
       <c r="I209" s="31"/>
     </row>
-    <row r="210" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="8:9">
       <c r="H210" s="31"/>
       <c r="I210" s="31"/>
     </row>
-    <row r="211" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="8:9">
       <c r="H211" s="31"/>
       <c r="I211" s="31"/>
     </row>
-    <row r="212" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="8:9">
       <c r="H212" s="31"/>
       <c r="I212" s="31"/>
     </row>
-    <row r="213" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="8:9">
       <c r="H213" s="31"/>
       <c r="I213" s="31"/>
     </row>
-    <row r="214" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="8:9">
       <c r="H214" s="31"/>
       <c r="I214" s="31"/>
     </row>
-    <row r="215" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="8:9">
       <c r="H215" s="31"/>
       <c r="I215" s="31"/>
     </row>
-    <row r="216" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="8:9">
       <c r="H216" s="31"/>
       <c r="I216" s="31"/>
     </row>
-    <row r="217" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="8:9">
       <c r="H217" s="31"/>
       <c r="I217" s="31"/>
     </row>
-    <row r="218" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="8:9">
       <c r="H218" s="31"/>
       <c r="I218" s="31"/>
     </row>
-    <row r="219" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="8:9">
       <c r="H219" s="31"/>
       <c r="I219" s="31"/>
     </row>
-    <row r="220" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="8:9">
       <c r="H220" s="31"/>
       <c r="I220" s="31"/>
     </row>
-    <row r="221" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="8:9">
       <c r="H221" s="31"/>
       <c r="I221" s="31"/>
     </row>
-    <row r="222" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="8:9">
       <c r="H222" s="31"/>
       <c r="I222" s="31"/>
     </row>
-    <row r="223" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="8:9">
       <c r="H223" s="31"/>
       <c r="I223" s="31"/>
     </row>
+    <row r="224" spans="8:9">
+      <c r="H224" s="31"/>
+      <c r="I224" s="31"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:Z150"/>
+  <autoFilter ref="A2:Z151"/>
   <mergeCells count="1">
     <mergeCell ref="T1:Y1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9622,25 +9621,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="29.44140625" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.5" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="31" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.44140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="10.5" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="31" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="31"/>
+    <col min="11" max="16384" width="11.5" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -9655,7 +9654,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>459</v>
       </c>
@@ -9690,7 +9689,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="30">
       <c r="A3" s="14" t="s">
         <v>628</v>
       </c>
@@ -9726,7 +9725,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="30" t="s">
         <v>644</v>
       </c>
@@ -9755,7 +9754,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="30" t="s">
         <v>645</v>
       </c>
@@ -9785,7 +9784,7 @@
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" s="30" t="s">
         <v>646</v>
       </c>
@@ -9814,7 +9813,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="30" t="s">
         <v>647</v>
       </c>
@@ -9843,13 +9842,13 @@
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="30" t="s">
         <v>709</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>710</v>
@@ -9874,13 +9873,13 @@
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" s="30" t="s">
         <v>711</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>710</v>
@@ -9904,13 +9903,13 @@
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" s="30" t="s">
         <v>712</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>710</v>
@@ -9934,13 +9933,13 @@
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" s="30" t="s">
         <v>713</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>710</v>
@@ -9964,13 +9963,13 @@
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" s="30" t="s">
         <v>714</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>710</v>
@@ -9994,13 +9993,13 @@
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" s="30" t="s">
         <v>715</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>710</v>
@@ -10024,13 +10023,13 @@
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="30" t="s">
         <v>716</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>710</v>
@@ -10054,13 +10053,13 @@
       <c r="K14" s="30"/>
       <c r="L14" s="30"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="30" t="s">
         <v>717</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>710</v>
@@ -10084,13 +10083,13 @@
       <c r="K15" s="30"/>
       <c r="L15" s="30"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="30" t="s">
         <v>718</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>710</v>
@@ -10114,13 +10113,13 @@
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" s="30" t="s">
         <v>719</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>710</v>
@@ -10144,13 +10143,13 @@
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" s="30" t="s">
         <v>720</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>710</v>
@@ -10174,13 +10173,13 @@
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" s="30" t="s">
         <v>722</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>723</v>
@@ -10205,13 +10204,13 @@
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" s="30" t="s">
         <v>721</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>723</v>
@@ -10235,13 +10234,13 @@
       <c r="K20" s="30"/>
       <c r="L20" s="30"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" s="30" t="s">
         <v>724</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>723</v>
@@ -10265,13 +10264,13 @@
       <c r="K21" s="30"/>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" s="30" t="s">
         <v>725</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>723</v>
@@ -10295,13 +10294,13 @@
       <c r="K22" s="30"/>
       <c r="L22" s="30"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" s="30" t="s">
         <v>726</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>723</v>
@@ -10325,13 +10324,13 @@
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" s="30" t="s">
         <v>727</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>723</v>
@@ -10355,13 +10354,13 @@
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" s="30" t="s">
         <v>728</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>723</v>
@@ -10385,13 +10384,13 @@
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" s="30" t="s">
         <v>729</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>723</v>
@@ -10415,13 +10414,13 @@
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" s="30" t="s">
         <v>730</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>723</v>
@@ -10445,13 +10444,13 @@
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" s="30" t="s">
         <v>731</v>
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="D28" s="30" t="s">
         <v>723</v>
@@ -10475,13 +10474,13 @@
       <c r="K28" s="30"/>
       <c r="L28" s="30"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" s="30" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="D29" s="30" t="s">
         <v>723</v>
@@ -10505,43 +10504,43 @@
       <c r="K29" s="30"/>
       <c r="L29" s="30"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" s="30"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
@@ -10549,7 +10548,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10561,19 +10565,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -10592,7 +10596,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -10613,7 +10617,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -10636,7 +10640,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -10659,7 +10663,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -10682,7 +10686,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -10705,7 +10709,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -10728,7 +10732,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -10751,7 +10755,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -10774,7 +10778,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -10797,7 +10801,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -10816,7 +10820,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -10837,7 +10841,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -10860,7 +10864,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -10883,7 +10887,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -10906,7 +10910,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -10929,7 +10933,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -10952,7 +10956,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -10975,7 +10979,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -10998,7 +11002,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11021,7 +11025,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -11040,7 +11044,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -11063,7 +11067,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -11086,7 +11090,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -11109,7 +11113,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -11132,7 +11136,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -11155,7 +11159,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -11178,7 +11182,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -11201,7 +11205,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -11224,7 +11228,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -11247,7 +11251,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -11266,7 +11270,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -11287,7 +11291,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -11310,7 +11314,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -11333,7 +11337,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -11356,7 +11360,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -11379,7 +11383,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -11402,7 +11406,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -11425,7 +11429,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -11448,7 +11452,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -11471,7 +11475,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -11490,7 +11494,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -11511,7 +11515,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -11534,7 +11538,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -11557,7 +11561,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -11580,7 +11584,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -11603,7 +11607,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -11626,7 +11630,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -11649,7 +11653,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -11672,7 +11676,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -11695,7 +11699,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -11714,7 +11718,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -11735,7 +11739,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -11758,7 +11762,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -11781,7 +11785,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -11804,7 +11808,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -11827,7 +11831,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -11850,7 +11854,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -11873,7 +11877,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -11896,7 +11900,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -11919,7 +11923,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -11938,7 +11942,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -11959,7 +11963,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -11984,7 +11988,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12007,7 +12011,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12030,7 +12034,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12053,7 +12057,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12076,7 +12080,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12099,7 +12103,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12122,7 +12126,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -12145,7 +12149,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -12168,7 +12172,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -12187,7 +12191,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -12208,7 +12212,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -12231,7 +12235,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -12256,7 +12260,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -12279,7 +12283,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -12302,7 +12306,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -12325,7 +12329,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -12348,7 +12352,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -12371,7 +12375,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -12394,7 +12398,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -12417,7 +12421,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -12440,7 +12444,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -12463,7 +12467,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -12486,7 +12490,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -12505,7 +12509,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -12528,7 +12532,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -12551,7 +12555,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -12574,7 +12578,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -12597,7 +12601,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -12620,7 +12624,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -12643,7 +12647,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -12666,7 +12670,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -12689,7 +12693,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -12712,7 +12716,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -12735,7 +12739,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -12754,7 +12758,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -12779,7 +12783,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -12798,7 +12802,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -12819,7 +12823,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -12844,7 +12848,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -12863,7 +12867,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -12886,7 +12890,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -12911,7 +12915,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -12934,7 +12938,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -12955,7 +12959,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -12974,7 +12978,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -12999,7 +13003,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13022,7 +13026,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13045,7 +13049,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13068,7 +13072,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13091,7 +13095,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13114,7 +13118,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13137,7 +13141,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -13156,7 +13160,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -13179,7 +13183,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -13202,7 +13206,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -13225,7 +13229,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -13244,7 +13248,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -13267,7 +13271,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -13290,7 +13294,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -13313,7 +13317,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -13336,7 +13340,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -13359,7 +13363,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -13382,7 +13386,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -13401,7 +13405,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -13426,7 +13430,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -13449,7 +13453,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -13472,7 +13476,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -13495,7 +13499,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -13518,7 +13522,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -13541,7 +13545,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -13564,7 +13568,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -13587,7 +13591,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -13610,7 +13614,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -13629,7 +13633,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -13654,7 +13658,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -13675,7 +13679,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -13698,7 +13702,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -13721,7 +13725,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -13744,7 +13748,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -13767,7 +13771,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -13790,7 +13794,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -13813,7 +13817,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -13836,7 +13840,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -13859,7 +13863,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -13882,7 +13886,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -13905,7 +13909,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -13928,7 +13932,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -13951,7 +13955,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -13970,7 +13974,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -13993,7 +13997,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14012,7 +14016,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14035,7 +14039,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14058,7 +14062,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14077,7 +14081,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14102,7 +14106,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14125,7 +14129,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -14148,7 +14152,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -14171,7 +14175,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -14194,7 +14198,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -14217,7 +14221,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -14240,7 +14244,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -14263,7 +14267,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -14286,7 +14290,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -14309,7 +14313,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -14328,7 +14332,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -14353,7 +14357,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -14376,7 +14380,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -14399,7 +14403,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -14422,7 +14426,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -14445,7 +14449,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -14468,7 +14472,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -14491,7 +14495,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -14514,7 +14518,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -14537,7 +14541,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -14560,7 +14564,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -14579,7 +14583,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -14602,7 +14606,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -14625,7 +14629,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -14648,7 +14652,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -14671,7 +14675,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -14690,7 +14694,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -14713,7 +14717,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -14736,7 +14740,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -14759,7 +14763,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -14782,7 +14786,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -14801,7 +14805,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -14822,7 +14826,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -14845,7 +14849,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -14864,7 +14868,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -14887,7 +14891,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -14912,7 +14916,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -14933,7 +14937,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -14958,7 +14962,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -14983,7 +14987,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15002,7 +15006,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15027,7 +15031,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15050,7 +15054,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15073,7 +15077,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15096,7 +15100,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15119,7 +15123,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -15142,7 +15146,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -15165,7 +15169,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -15188,7 +15192,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -15211,7 +15215,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -15230,7 +15234,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -15255,7 +15259,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -15278,7 +15282,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -15301,7 +15305,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -15324,7 +15328,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -15347,7 +15351,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -15370,7 +15374,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -15393,7 +15397,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -15416,7 +15420,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -15439,7 +15443,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -15458,7 +15462,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -15479,7 +15483,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -15502,7 +15506,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -15525,7 +15529,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -15548,7 +15552,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -15571,7 +15575,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -15594,7 +15598,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -15617,7 +15621,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -15640,7 +15644,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -15663,7 +15667,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -15686,7 +15690,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -15709,7 +15713,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -15732,7 +15736,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -15755,7 +15759,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -15778,7 +15782,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -15801,7 +15805,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -15824,7 +15828,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -15843,7 +15847,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -15864,7 +15868,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -15887,7 +15891,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -15910,7 +15914,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -15933,7 +15937,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -15956,7 +15960,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -15979,7 +15983,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16002,7 +16006,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16025,7 +16029,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16048,7 +16052,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16071,7 +16075,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16094,7 +16098,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16117,7 +16121,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16140,7 +16144,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -16163,7 +16167,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -16186,7 +16190,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -16209,7 +16213,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -16228,7 +16232,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -16253,7 +16257,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -16276,7 +16280,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -16299,7 +16303,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -16322,7 +16326,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -16345,7 +16349,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -16364,7 +16368,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -16389,7 +16393,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -16412,7 +16416,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -16431,7 +16435,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -16450,7 +16454,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -16469,7 +16473,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -16490,7 +16494,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -16513,7 +16517,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -16536,7 +16540,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -16559,7 +16563,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -16582,7 +16586,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -16605,7 +16609,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -16628,7 +16632,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -16651,7 +16655,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -16674,7 +16678,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -16697,7 +16701,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -16720,7 +16724,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -16739,7 +16743,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -16762,7 +16766,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -16781,7 +16785,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -16806,7 +16810,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -16829,7 +16833,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -16852,7 +16856,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -16875,7 +16879,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -16898,7 +16902,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -16921,7 +16925,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -16944,7 +16948,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -16967,7 +16971,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -16990,7 +16994,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17013,7 +17017,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17036,7 +17040,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17055,7 +17059,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17078,7 +17082,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17097,7 +17101,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17118,7 +17122,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17137,7 +17141,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -17158,7 +17162,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -17177,7 +17181,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -17198,7 +17202,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -17217,7 +17221,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -17240,7 +17244,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -17259,7 +17263,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -17284,7 +17288,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -17307,7 +17311,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -17330,7 +17334,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -17353,7 +17357,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -17376,7 +17380,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -17399,7 +17403,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -17422,7 +17426,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -17445,7 +17449,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -17468,7 +17472,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -17487,7 +17491,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -17510,7 +17514,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -17533,7 +17537,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -17556,7 +17560,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -17579,7 +17583,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -17598,7 +17602,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -17621,7 +17625,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -17644,7 +17648,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -17669,7 +17673,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -17688,7 +17692,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -17713,7 +17717,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -17736,7 +17740,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -17755,7 +17759,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -17776,7 +17780,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -17797,7 +17801,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -17820,7 +17824,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -17839,7 +17843,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -17858,7 +17862,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -17883,7 +17887,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -17908,7 +17912,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -17922,7 +17926,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -17945,7 +17949,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -17965,7 +17969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -17985,7 +17989,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18005,7 +18009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18022,7 +18026,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18045,7 +18049,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18068,7 +18072,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18082,7 +18086,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18105,7 +18109,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18128,7 +18132,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18148,7 +18152,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18168,7 +18172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18185,7 +18189,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18211,7 +18215,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18240,7 +18244,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18279,7 +18283,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -18293,7 +18297,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -18313,7 +18317,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18327,7 +18331,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18347,7 +18351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18367,7 +18371,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -18387,7 +18391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -18407,7 +18411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -18427,7 +18431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -18447,7 +18451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -18467,7 +18471,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -18487,7 +18491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -18507,7 +18511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -18521,7 +18525,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -18541,7 +18545,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -18561,7 +18565,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -18577,7 +18581,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -18603,7 +18607,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -18644,7 +18648,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -18658,7 +18662,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -18678,7 +18682,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -18692,7 +18696,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -18715,6 +18719,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -18726,17 +18735,17 @@
       <selection activeCell="A17" sqref="A17:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -18747,7 +18756,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="30" customFormat="1">
       <c r="A2" s="30" t="s">
         <v>589</v>
       </c>
@@ -18761,7 +18770,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="30" customFormat="1">
       <c r="A3" s="30" t="s">
         <v>592</v>
       </c>
@@ -18775,7 +18784,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="30" customFormat="1">
       <c r="A4" s="30" t="s">
         <v>594</v>
       </c>
@@ -18789,7 +18798,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="30" customFormat="1">
       <c r="A5" s="30" t="s">
         <v>596</v>
       </c>
@@ -18803,7 +18812,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="30" customFormat="1">
       <c r="A6" s="30" t="s">
         <v>598</v>
       </c>
@@ -18817,7 +18826,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="30" customFormat="1">
       <c r="A7" s="30" t="s">
         <v>440</v>
       </c>
@@ -18831,7 +18840,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="30" customFormat="1">
       <c r="A8" s="30" t="s">
         <v>601</v>
       </c>
@@ -18845,7 +18854,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="30" customFormat="1">
       <c r="A9" s="30" t="s">
         <v>603</v>
       </c>
@@ -18859,7 +18868,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>569</v>
       </c>
@@ -18873,7 +18882,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>454</v>
       </c>
@@ -18887,7 +18896,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>452</v>
       </c>
@@ -18898,8 +18907,8 @@
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="30" customFormat="1"/>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>547</v>
       </c>
@@ -18925,7 +18934,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>548</v>
       </c>
@@ -18966,7 +18975,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -19007,7 +19016,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>542</v>
       </c>
@@ -19039,7 +19048,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>550</v>
       </c>
@@ -19071,7 +19080,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>549</v>
       </c>
@@ -19100,7 +19109,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>551</v>
       </c>
@@ -19132,7 +19141,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>552</v>
       </c>
@@ -19152,7 +19161,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>682</v>
       </c>
@@ -19175,7 +19184,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="L25" s="1" t="s">
         <v>558</v>
       </c>
@@ -19186,7 +19195,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="L26" s="1" t="s">
         <v>539</v>
       </c>
@@ -19194,7 +19203,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="L27" s="1" t="s">
         <v>541</v>
       </c>
@@ -19208,5 +19217,10 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/projects/office_calibration_modeled.xlsx
+++ b/projects/office_calibration_modeled.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2636" uniqueCount="844">
   <si>
     <t>type</t>
   </si>
@@ -2507,6 +2507,72 @@
   </si>
   <si>
     <t>degrees</t>
+  </si>
+  <si>
+    <t>Design Specification Outdoor Air Reduction (%)</t>
+  </si>
+  <si>
+    <t>Increase Insulation R value For Roofs By Percentage</t>
+  </si>
+  <si>
+    <t>IncreaseInsulationRValueForRoofsByPercentage</t>
+  </si>
+  <si>
+    <t>Percentage Increase of R-value for Roof Insulation</t>
+  </si>
+  <si>
+    <t>Increase Insulation R value For Exterior Walls By Percentage</t>
+  </si>
+  <si>
+    <t>IncreaseInsulationRValueForExteriorWallsByPercentage</t>
+  </si>
+  <si>
+    <t>Percentage Increase of R-value for Exterior Wall Insulation</t>
+  </si>
+  <si>
+    <t>Electric Equipment Power Reduction</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Increase in Material and Installation Cost for Electric Equipment per Floor Area</t>
+  </si>
+  <si>
+    <t>Increase in Demolition Costs for Electric Equipment per Floor Area</t>
+  </si>
+  <si>
+    <t>Years Until Costs Start</t>
+  </si>
+  <si>
+    <t>whole years</t>
+  </si>
+  <si>
+    <t>Demolition Costs Occur During Initial Construction</t>
+  </si>
+  <si>
+    <t>Expected Life</t>
+  </si>
+  <si>
+    <t>Increase O &amp; M Costs for Electric Equipment per Floor Area</t>
+  </si>
+  <si>
+    <t>O &amp; M Frequency</t>
+  </si>
+  <si>
+    <t>AdjustThermostatSetpointsByDegrees</t>
+  </si>
+  <si>
+    <t>Degrees Fahrenheit to Adjust Cooling Setpoint By</t>
+  </si>
+  <si>
+    <t>deg F</t>
+  </si>
+  <si>
+    <t>Degrees Fahrenheit to Adjust heating Setpoint By</t>
+  </si>
+  <si>
+    <t>Alter Design Day Thermostats</t>
   </si>
 </sst>
 </file>
@@ -2516,7 +2582,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2575,8 +2641,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2643,6 +2716,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2653,7 +2738,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1784">
+  <cellStyleXfs count="1786">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4438,8 +4523,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4539,12 +4626,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1784">
+  <cellStyles count="1786">
     <cellStyle name="Comma" xfId="1749" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -5437,6 +5526,7 @@
     <cellStyle name="Followed Hyperlink" xfId="1779" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1781" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1783" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1785" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6328,6 +6418,7 @@
     <cellStyle name="Hyperlink" xfId="1778" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1780" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1782" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1784" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7132,8 +7223,8 @@
   <dimension ref="A1:Y224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A78" sqref="A78:XFD78"/>
+      <pane ySplit="3" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7146,11 +7237,11 @@
     <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="4" customWidth="1"/>
     <col min="10" max="10" width="7.1640625" style="31" customWidth="1"/>
     <col min="11" max="11" width="8.1640625" style="31" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
-    <col min="13" max="14" width="7.83203125" style="31" customWidth="1"/>
+    <col min="13" max="14" width="7.6640625" style="31" customWidth="1"/>
     <col min="15" max="15" width="11.5" style="31"/>
     <col min="16" max="16" width="11.5" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
@@ -7187,14 +7278,14 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
-      <c r="T1" s="49" t="s">
+      <c r="T1" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
     </row>
     <row r="2" spans="1:25" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
@@ -7479,41 +7570,61 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" s="30" customFormat="1">
+    <row r="14" spans="1:25">
       <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="31" t="s">
         <v>662</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="31" t="s">
         <v>766</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="31">
         <v>12717</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" s="30" customFormat="1">
-      <c r="B15" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="30" t="s">
+      <c r="I14" s="31"/>
+    </row>
+    <row r="15" spans="1:25" s="43" customFormat="1">
+      <c r="B15" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="43" t="s">
         <v>663</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="30">
-        <v>2</v>
+      <c r="H15" s="43">
+        <v>2</v>
+      </c>
+      <c r="J15" s="43">
+        <v>1</v>
+      </c>
+      <c r="K15" s="43">
+        <v>5</v>
+      </c>
+      <c r="L15" s="43">
+        <v>2</v>
+      </c>
+      <c r="M15" s="43">
+        <f>(K15-J15)/6</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N15" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="Q15" s="50" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="30" customFormat="1">
@@ -7533,27 +7644,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="30" customFormat="1">
-      <c r="B17" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="30" t="s">
+    <row r="17" spans="1:17" s="43" customFormat="1">
+      <c r="B17" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="43" t="s">
         <v>664</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="43" t="s">
         <v>767</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="43">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" s="30" customFormat="1">
+      <c r="J17" s="43">
+        <v>8</v>
+      </c>
+      <c r="K17" s="43">
+        <v>20</v>
+      </c>
+      <c r="L17" s="43">
+        <v>10</v>
+      </c>
+      <c r="M17" s="43">
+        <f>(K17-J17)/6</f>
+        <v>2</v>
+      </c>
+      <c r="N17" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="Q17" s="50" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="30" customFormat="1">
       <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
@@ -7570,7 +7700,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="30" customFormat="1">
+    <row r="19" spans="1:17" s="30" customFormat="1">
       <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
@@ -7587,7 +7717,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="30" customFormat="1">
+    <row r="20" spans="1:17" s="30" customFormat="1">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
@@ -7604,7 +7734,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="30" customFormat="1">
+    <row r="21" spans="1:17" s="30" customFormat="1">
       <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
@@ -7621,7 +7751,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="30" customFormat="1">
+    <row r="22" spans="1:17" s="30" customFormat="1">
       <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
@@ -7638,7 +7768,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="30" customFormat="1">
+    <row r="23" spans="1:17" s="30" customFormat="1">
       <c r="B23" s="30" t="s">
         <v>21</v>
       </c>
@@ -7655,7 +7785,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="30" customFormat="1">
+    <row r="24" spans="1:17" s="30" customFormat="1">
       <c r="B24" s="30" t="s">
         <v>21</v>
       </c>
@@ -7672,7 +7802,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="30" customFormat="1">
+    <row r="25" spans="1:17" s="30" customFormat="1">
       <c r="B25" s="30" t="s">
         <v>21</v>
       </c>
@@ -7689,7 +7819,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="30" customFormat="1">
+    <row r="26" spans="1:17" s="30" customFormat="1">
       <c r="B26" s="30" t="s">
         <v>21</v>
       </c>
@@ -7706,7 +7836,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="30" customFormat="1">
+    <row r="27" spans="1:17" s="30" customFormat="1">
       <c r="B27" s="30" t="s">
         <v>21</v>
       </c>
@@ -7723,7 +7853,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="30" customFormat="1">
+    <row r="28" spans="1:17" s="30" customFormat="1">
       <c r="B28" s="30" t="s">
         <v>21</v>
       </c>
@@ -7740,7 +7870,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="30" customFormat="1">
+    <row r="29" spans="1:17" s="30" customFormat="1">
       <c r="B29" s="30" t="s">
         <v>21</v>
       </c>
@@ -7757,7 +7887,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="30" customFormat="1">
+    <row r="30" spans="1:17" s="30" customFormat="1">
       <c r="B30" s="30" t="s">
         <v>21</v>
       </c>
@@ -7774,7 +7904,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="38" customFormat="1">
+    <row r="31" spans="1:17" s="38" customFormat="1">
       <c r="A31" s="38" t="b">
         <v>1</v>
       </c>
@@ -7793,7 +7923,7 @@
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:17">
       <c r="B32" s="31" t="s">
         <v>21</v>
       </c>
@@ -7828,41 +7958,77 @@
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
     </row>
-    <row r="34" spans="1:17">
-      <c r="B34" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="31" t="s">
+    <row r="34" spans="1:17" s="43" customFormat="1">
+      <c r="B34" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="43" t="s">
         <v>785</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E34" s="43" t="s">
         <v>786</v>
       </c>
-      <c r="F34" s="31" t="s">
+      <c r="F34" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H34" s="31">
+      <c r="H34" s="43">
         <v>0.8</v>
       </c>
-      <c r="I34" s="31"/>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="B35" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="31" t="s">
+      <c r="J34" s="43">
+        <v>0.6</v>
+      </c>
+      <c r="K34" s="43">
+        <v>0.95</v>
+      </c>
+      <c r="L34" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="M34" s="43">
+        <f>(K34-J34)/6</f>
+        <v>5.8333333333333327E-2</v>
+      </c>
+      <c r="N34" s="43">
+        <v>0.01</v>
+      </c>
+      <c r="Q34" s="43" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="43" customFormat="1">
+      <c r="B35" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="43" t="s">
         <v>787</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="E35" s="43" t="s">
         <v>788</v>
       </c>
-      <c r="F35" s="31" t="s">
+      <c r="F35" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H35" s="31">
+      <c r="H35" s="43">
         <v>3</v>
       </c>
-      <c r="I35" s="31"/>
+      <c r="J35" s="43">
+        <v>2.5</v>
+      </c>
+      <c r="K35" s="43">
+        <v>5</v>
+      </c>
+      <c r="L35" s="43">
+        <v>3</v>
+      </c>
+      <c r="M35" s="43">
+        <f>(K35-J35)/6</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="N35" s="43">
+        <v>0.01</v>
+      </c>
+      <c r="Q35" s="43" t="s">
+        <v>776</v>
+      </c>
     </row>
     <row r="36" spans="1:17" s="38" customFormat="1">
       <c r="A36" s="38" t="b">
@@ -7883,26 +8049,44 @@
       <c r="G36" s="39"/>
       <c r="H36" s="39"/>
     </row>
-    <row r="37" spans="1:17">
-      <c r="B37" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="31" t="s">
+    <row r="37" spans="1:17" s="43" customFormat="1">
+      <c r="B37" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="43" t="s">
         <v>820</v>
       </c>
-      <c r="E37" s="31" t="s">
+      <c r="E37" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="F37" s="31" t="s">
+      <c r="F37" s="43" t="s">
         <v>619</v>
       </c>
-      <c r="G37" s="31" t="s">
+      <c r="G37" s="43" t="s">
         <v>821</v>
       </c>
-      <c r="H37" s="31">
-        <v>10</v>
-      </c>
-      <c r="I37" s="31"/>
+      <c r="H37" s="43">
+        <v>0</v>
+      </c>
+      <c r="J37" s="43">
+        <v>0</v>
+      </c>
+      <c r="K37" s="43">
+        <v>90</v>
+      </c>
+      <c r="L37" s="43">
+        <v>0</v>
+      </c>
+      <c r="M37" s="43">
+        <f>(K37-J37)/6</f>
+        <v>15</v>
+      </c>
+      <c r="N37" s="43">
+        <v>5</v>
+      </c>
+      <c r="Q37" s="43" t="s">
+        <v>776</v>
+      </c>
     </row>
     <row r="38" spans="1:17" s="38" customFormat="1">
       <c r="A38" s="38" t="b">
@@ -7940,13 +8124,26 @@
         <v>0.4</v>
       </c>
       <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
+      <c r="J39" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="L39" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="M39" s="31">
+        <f>(K39-J39)/6</f>
+        <v>0.125</v>
+      </c>
+      <c r="N39" s="31">
+        <v>0.01</v>
+      </c>
       <c r="P39" s="40"/>
-      <c r="Q39" s="2"/>
+      <c r="Q39" s="31" t="s">
+        <v>776</v>
+      </c>
     </row>
     <row r="40" spans="1:17">
       <c r="B40" s="31" t="s">
@@ -8034,13 +8231,26 @@
         <v>0.4</v>
       </c>
       <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
+      <c r="J43" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="M43" s="31">
+        <f>(K43-J43)/6</f>
+        <v>0.125</v>
+      </c>
+      <c r="N43" s="31">
+        <v>0.01</v>
+      </c>
       <c r="P43" s="40"/>
-      <c r="Q43" s="2"/>
+      <c r="Q43" s="31" t="s">
+        <v>776</v>
+      </c>
     </row>
     <row r="44" spans="1:17">
       <c r="B44" s="31" t="s">
@@ -8128,13 +8338,26 @@
         <v>0.4</v>
       </c>
       <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
+      <c r="J47" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="M47" s="31">
+        <f>(K47-J47)/6</f>
+        <v>0.125</v>
+      </c>
+      <c r="N47" s="31">
+        <v>0.01</v>
+      </c>
       <c r="P47" s="40"/>
-      <c r="Q47" s="2"/>
+      <c r="Q47" s="31" t="s">
+        <v>776</v>
+      </c>
     </row>
     <row r="48" spans="1:17">
       <c r="B48" s="31" t="s">
@@ -8222,13 +8445,26 @@
         <v>0.4</v>
       </c>
       <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
+      <c r="J51" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="K51" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="L51" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="M51" s="31">
+        <f>(K51-J51)/6</f>
+        <v>0.125</v>
+      </c>
+      <c r="N51" s="31">
+        <v>0.01</v>
+      </c>
       <c r="P51" s="40"/>
-      <c r="Q51" s="2"/>
+      <c r="Q51" s="31" t="s">
+        <v>776</v>
+      </c>
     </row>
     <row r="52" spans="1:17">
       <c r="B52" s="31" t="s">
@@ -8390,20 +8626,20 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
     </row>
-    <row r="60" spans="1:17" s="50" customFormat="1">
-      <c r="A60" s="50" t="b">
+    <row r="60" spans="1:17" s="51" customFormat="1">
+      <c r="A60" s="51" t="b">
         <v>1</v>
       </c>
-      <c r="B60" s="50" t="s">
+      <c r="B60" s="51" t="s">
         <v>774</v>
       </c>
-      <c r="C60" s="50" t="s">
+      <c r="C60" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="D60" s="50" t="s">
+      <c r="D60" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="E60" s="50" t="s">
+      <c r="E60" s="51" t="s">
         <v>68</v>
       </c>
     </row>
@@ -8424,17 +8660,17 @@
         <v>0.4</v>
       </c>
       <c r="J61" s="43">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="K61" s="43">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="L61" s="43">
         <v>0.4</v>
       </c>
       <c r="M61" s="43">
         <f>(K61+J61)/6</f>
-        <v>0.13333333333333333</v>
+        <v>0.14166666666666669</v>
       </c>
       <c r="N61" s="43">
         <v>0.01</v>
@@ -8480,20 +8716,20 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="50" customFormat="1">
-      <c r="A64" s="50" t="b">
+    <row r="64" spans="1:17" s="51" customFormat="1">
+      <c r="A64" s="51" t="b">
         <v>1</v>
       </c>
-      <c r="B64" s="50" t="s">
+      <c r="B64" s="51" t="s">
         <v>777</v>
       </c>
-      <c r="C64" s="50" t="s">
+      <c r="C64" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="D64" s="50" t="s">
+      <c r="D64" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="E64" s="50" t="s">
+      <c r="E64" s="51" t="s">
         <v>68</v>
       </c>
     </row>
@@ -8514,17 +8750,17 @@
         <v>0.4</v>
       </c>
       <c r="J65" s="43">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="K65" s="43">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="L65" s="43">
         <v>0.4</v>
       </c>
       <c r="M65" s="43">
         <f>(K65+J65)/6</f>
-        <v>0.13333333333333333</v>
+        <v>0.14166666666666669</v>
       </c>
       <c r="N65" s="43">
         <v>0.01</v>
@@ -8570,20 +8806,20 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:17" s="50" customFormat="1">
-      <c r="A68" s="50" t="b">
+    <row r="68" spans="1:17" s="51" customFormat="1">
+      <c r="A68" s="51" t="b">
         <v>1</v>
       </c>
-      <c r="B68" s="50" t="s">
+      <c r="B68" s="51" t="s">
         <v>779</v>
       </c>
-      <c r="C68" s="50" t="s">
+      <c r="C68" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="D68" s="50" t="s">
+      <c r="D68" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="E68" s="50" t="s">
+      <c r="E68" s="51" t="s">
         <v>68</v>
       </c>
     </row>
@@ -8604,17 +8840,17 @@
         <v>0.4</v>
       </c>
       <c r="J69" s="43">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="K69" s="43">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="L69" s="43">
         <v>0.4</v>
       </c>
       <c r="M69" s="43">
         <f>(K69+J69)/6</f>
-        <v>0.13333333333333333</v>
+        <v>0.14166666666666669</v>
       </c>
       <c r="N69" s="43">
         <v>0.01</v>
@@ -8660,20 +8896,20 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:17" s="50" customFormat="1">
-      <c r="A72" s="50" t="b">
+    <row r="72" spans="1:17" s="51" customFormat="1">
+      <c r="A72" s="51" t="b">
         <v>1</v>
       </c>
-      <c r="B72" s="50" t="s">
+      <c r="B72" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="50" t="s">
+      <c r="C72" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D72" s="50" t="s">
+      <c r="D72" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="E72" s="50" t="s">
+      <c r="E72" s="51" t="s">
         <v>68</v>
       </c>
     </row>
@@ -8788,20 +9024,20 @@
       </c>
       <c r="O77" s="31"/>
     </row>
-    <row r="78" spans="1:17" s="50" customFormat="1">
-      <c r="A78" s="50" t="b">
+    <row r="78" spans="1:17" s="49" customFormat="1">
+      <c r="A78" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B78" s="50" t="s">
+      <c r="B78" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="C78" s="50" t="s">
+      <c r="C78" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D78" s="50" t="s">
+      <c r="D78" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="E78" s="50" t="s">
+      <c r="E78" s="49" t="s">
         <v>68</v>
       </c>
     </row>
@@ -8852,17 +9088,17 @@
       </c>
       <c r="I80" s="46"/>
       <c r="J80" s="45">
-        <v>-40</v>
+        <v>-60</v>
       </c>
       <c r="K80" s="45">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L80" s="45">
         <v>-1</v>
       </c>
       <c r="M80" s="45">
         <f>(K80-J80)/6</f>
-        <v>13.333333333333334</v>
+        <v>20</v>
       </c>
       <c r="N80" s="45">
         <v>2.5</v>
@@ -8872,7 +9108,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:17">
       <c r="A81" s="30"/>
       <c r="B81" s="30" t="s">
         <v>21</v>
@@ -8898,7 +9134,7 @@
       <c r="N81" s="3"/>
       <c r="P81" s="40"/>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:17">
       <c r="A82" s="30"/>
       <c r="B82" s="30" t="s">
         <v>21</v>
@@ -8924,7 +9160,7 @@
       <c r="N82" s="3"/>
       <c r="P82" s="40"/>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:17">
       <c r="A83" s="30"/>
       <c r="B83" s="30" t="s">
         <v>21</v>
@@ -8950,7 +9186,7 @@
       <c r="N83" s="3"/>
       <c r="P83" s="40"/>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:17">
       <c r="A84" s="30"/>
       <c r="B84" s="30" t="s">
         <v>21</v>
@@ -8976,7 +9212,7 @@
       <c r="N84" s="3"/>
       <c r="P84" s="40"/>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:17">
       <c r="A85" s="30"/>
       <c r="B85" s="30" t="s">
         <v>21</v>
@@ -9002,7 +9238,7 @@
       <c r="N85" s="3"/>
       <c r="P85" s="40"/>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:17">
       <c r="A86" s="30"/>
       <c r="B86" s="30" t="s">
         <v>21</v>
@@ -9028,7 +9264,7 @@
       <c r="N86" s="3"/>
       <c r="P86" s="40"/>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:17">
       <c r="A87" s="30"/>
       <c r="B87" s="30" t="s">
         <v>21</v>
@@ -9054,103 +9290,545 @@
       <c r="N87" s="3"/>
       <c r="P87" s="40"/>
     </row>
-    <row r="88" spans="1:16">
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-    </row>
-    <row r="89" spans="1:16">
-      <c r="H89" s="31"/>
-      <c r="I89" s="31"/>
-    </row>
-    <row r="90" spans="1:16">
-      <c r="H90" s="31"/>
-      <c r="I90" s="31"/>
-    </row>
-    <row r="91" spans="1:16">
-      <c r="H91" s="31"/>
-      <c r="I91" s="31"/>
-    </row>
-    <row r="92" spans="1:16">
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-    </row>
-    <row r="93" spans="1:16">
-      <c r="H93" s="31"/>
-      <c r="I93" s="31"/>
-    </row>
-    <row r="94" spans="1:16">
-      <c r="H94" s="31"/>
-      <c r="I94" s="31"/>
-    </row>
-    <row r="95" spans="1:16">
-      <c r="H95" s="31"/>
-      <c r="I95" s="31"/>
-    </row>
-    <row r="96" spans="1:16">
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-    </row>
-    <row r="97" spans="8:9">
-      <c r="H97" s="31"/>
-      <c r="I97" s="31"/>
-    </row>
-    <row r="98" spans="8:9">
-      <c r="H98" s="31"/>
-      <c r="I98" s="31"/>
-    </row>
-    <row r="99" spans="8:9">
-      <c r="H99" s="31"/>
-      <c r="I99" s="31"/>
-    </row>
-    <row r="100" spans="8:9">
-      <c r="H100" s="31"/>
-      <c r="I100" s="31"/>
-    </row>
-    <row r="101" spans="8:9">
-      <c r="H101" s="31"/>
-      <c r="I101" s="31"/>
-    </row>
-    <row r="102" spans="8:9">
-      <c r="H102" s="31"/>
-      <c r="I102" s="31"/>
-    </row>
-    <row r="103" spans="8:9">
-      <c r="H103" s="31"/>
-      <c r="I103" s="31"/>
-    </row>
-    <row r="104" spans="8:9">
-      <c r="H104" s="31"/>
-      <c r="I104" s="31"/>
-    </row>
-    <row r="105" spans="8:9">
-      <c r="H105" s="31"/>
-      <c r="I105" s="31"/>
-    </row>
-    <row r="106" spans="8:9">
-      <c r="H106" s="31"/>
-      <c r="I106" s="31"/>
-    </row>
-    <row r="107" spans="8:9">
-      <c r="H107" s="31"/>
-      <c r="I107" s="31"/>
-    </row>
-    <row r="108" spans="8:9">
-      <c r="H108" s="31"/>
-      <c r="I108" s="31"/>
-    </row>
-    <row r="109" spans="8:9">
+    <row r="88" spans="1:17" s="49" customFormat="1">
+      <c r="A88" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B88" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="C88" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="D88" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="E88" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="A89" s="30"/>
+      <c r="B89" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="E89" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F89" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G89" s="30"/>
+      <c r="H89" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I89" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="P89" s="40"/>
+    </row>
+    <row r="90" spans="1:17" s="43" customFormat="1">
+      <c r="B90" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D90" s="43" t="s">
+        <v>822</v>
+      </c>
+      <c r="E90" s="43" t="s">
+        <v>330</v>
+      </c>
+      <c r="F90" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H90" s="43">
+        <v>0</v>
+      </c>
+      <c r="I90" s="46"/>
+      <c r="J90" s="45">
+        <v>-30</v>
+      </c>
+      <c r="K90" s="45">
+        <v>30</v>
+      </c>
+      <c r="L90" s="45">
+        <v>0</v>
+      </c>
+      <c r="M90" s="45">
+        <f>(K90-J90)/6</f>
+        <v>10</v>
+      </c>
+      <c r="N90" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q90" s="43" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" s="49" customFormat="1">
+      <c r="A91" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B91" s="49" t="s">
+        <v>823</v>
+      </c>
+      <c r="C91" s="49" t="s">
+        <v>824</v>
+      </c>
+      <c r="D91" s="49" t="s">
+        <v>824</v>
+      </c>
+      <c r="E91" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" s="43" customFormat="1">
+      <c r="B92" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" s="43" t="s">
+        <v>825</v>
+      </c>
+      <c r="E92" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="F92" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H92" s="43">
+        <v>0</v>
+      </c>
+      <c r="I92" s="46"/>
+      <c r="J92" s="45">
+        <v>-50</v>
+      </c>
+      <c r="K92" s="45">
+        <v>100</v>
+      </c>
+      <c r="L92" s="45">
+        <v>0</v>
+      </c>
+      <c r="M92" s="45">
+        <f>(K92-J92)/6</f>
+        <v>25</v>
+      </c>
+      <c r="N92" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q92" s="43" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" s="49" customFormat="1">
+      <c r="A93" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B93" s="49" t="s">
+        <v>826</v>
+      </c>
+      <c r="C93" s="49" t="s">
+        <v>827</v>
+      </c>
+      <c r="D93" s="49" t="s">
+        <v>827</v>
+      </c>
+      <c r="E93" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" s="43" customFormat="1">
+      <c r="B94" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D94" s="43" t="s">
+        <v>828</v>
+      </c>
+      <c r="E94" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="F94" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H94" s="43">
+        <v>0</v>
+      </c>
+      <c r="I94" s="46"/>
+      <c r="J94" s="45">
+        <v>-50</v>
+      </c>
+      <c r="K94" s="45">
+        <v>100</v>
+      </c>
+      <c r="L94" s="45">
+        <v>0</v>
+      </c>
+      <c r="M94" s="45">
+        <f>(K94-J94)/6</f>
+        <v>25</v>
+      </c>
+      <c r="N94" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q94" s="43" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" s="49" customFormat="1">
+      <c r="A95" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B95" s="49" t="s">
+        <v>285</v>
+      </c>
+      <c r="C95" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="D95" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="E95" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" s="30" customFormat="1">
+      <c r="B96" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="E96" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F96" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H96" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I96" s="30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" s="43" customFormat="1">
+      <c r="B97" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D97" s="43" t="s">
+        <v>829</v>
+      </c>
+      <c r="E97" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="F97" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="G97" s="43" t="s">
+        <v>830</v>
+      </c>
+      <c r="H97" s="43">
+        <v>0</v>
+      </c>
+      <c r="I97" s="46"/>
+      <c r="J97" s="45">
+        <v>-40</v>
+      </c>
+      <c r="K97" s="45">
+        <v>80</v>
+      </c>
+      <c r="L97" s="45">
+        <v>-1</v>
+      </c>
+      <c r="M97" s="45">
+        <f>(K97-J97)/6</f>
+        <v>20</v>
+      </c>
+      <c r="N97" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q97" s="43" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" s="30" customFormat="1">
+      <c r="B98" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="E98" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F98" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G98" s="30" t="s">
+        <v>830</v>
+      </c>
+      <c r="H98" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" s="30" customFormat="1">
+      <c r="B99" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" s="30" t="s">
+        <v>832</v>
+      </c>
+      <c r="E99" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F99" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G99" s="30" t="s">
+        <v>830</v>
+      </c>
+      <c r="H99" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" s="30" customFormat="1">
+      <c r="B100" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="30" t="s">
+        <v>833</v>
+      </c>
+      <c r="E100" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F100" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G100" s="30" t="s">
+        <v>834</v>
+      </c>
+      <c r="H100" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" s="30" customFormat="1">
+      <c r="B101" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="30" t="s">
+        <v>835</v>
+      </c>
+      <c r="E101" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F101" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H101" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" s="30" customFormat="1">
+      <c r="B102" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" s="30" t="s">
+        <v>836</v>
+      </c>
+      <c r="E102" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F102" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G102" s="30" t="s">
+        <v>834</v>
+      </c>
+      <c r="H102" s="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" s="30" customFormat="1">
+      <c r="B103" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" s="30" t="s">
+        <v>837</v>
+      </c>
+      <c r="E103" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F103" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G103" s="30" t="s">
+        <v>830</v>
+      </c>
+      <c r="H103" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" s="30" customFormat="1">
+      <c r="B104" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" s="30" t="s">
+        <v>838</v>
+      </c>
+      <c r="E104" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F104" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G104" s="30" t="s">
+        <v>834</v>
+      </c>
+      <c r="H104" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" s="38" customFormat="1">
+      <c r="A105" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B105" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="C105" s="38" t="s">
+        <v>839</v>
+      </c>
+      <c r="D105" s="38" t="s">
+        <v>839</v>
+      </c>
+      <c r="E105" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G105" s="39"/>
+      <c r="H105" s="39"/>
+    </row>
+    <row r="106" spans="1:17" s="43" customFormat="1">
+      <c r="B106" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D106" s="43" t="s">
+        <v>840</v>
+      </c>
+      <c r="E106" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="F106" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="G106" s="43" t="s">
+        <v>841</v>
+      </c>
+      <c r="H106" s="43">
+        <v>1</v>
+      </c>
+      <c r="I106" s="46"/>
+      <c r="J106" s="45">
+        <v>-5</v>
+      </c>
+      <c r="K106" s="45">
+        <v>5</v>
+      </c>
+      <c r="L106" s="45">
+        <v>0</v>
+      </c>
+      <c r="M106" s="45">
+        <f>(K106-J106)/6</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="N106" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q106" s="43" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" s="43" customFormat="1">
+      <c r="B107" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D107" s="43" t="s">
+        <v>842</v>
+      </c>
+      <c r="E107" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="F107" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="G107" s="43" t="s">
+        <v>841</v>
+      </c>
+      <c r="H107" s="43">
+        <v>-1</v>
+      </c>
+      <c r="I107" s="46"/>
+      <c r="J107" s="45">
+        <v>-5</v>
+      </c>
+      <c r="K107" s="45">
+        <v>5</v>
+      </c>
+      <c r="L107" s="45">
+        <v>0</v>
+      </c>
+      <c r="M107" s="45">
+        <f>(K107-J107)/6</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="N107" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q107" s="43" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17">
+      <c r="B108" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D108" s="31" t="s">
+        <v>843</v>
+      </c>
+      <c r="E108" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="F108" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H108" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
+    </row>
+    <row r="109" spans="1:17">
       <c r="H109" s="31"/>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="8:9">
+    <row r="110" spans="1:17">
       <c r="H110" s="31"/>
       <c r="I110" s="31"/>
     </row>
-    <row r="111" spans="8:9">
+    <row r="111" spans="1:17">
       <c r="H111" s="31"/>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="8:9">
+    <row r="112" spans="1:17">
       <c r="H112" s="31"/>
       <c r="I112" s="31"/>
     </row>

--- a/projects/office_calibration_modeled.xlsx
+++ b/projects/office_calibration_modeled.xlsx
@@ -2014,9 +2014,6 @@
     <t>createConstructionSet</t>
   </si>
   <si>
-    <t>DOE Ref 2004</t>
-  </si>
-  <si>
     <t>ASHRAE 169-2006-5B</t>
   </si>
   <si>
@@ -2573,6 +2570,9 @@
   </si>
   <si>
     <t>Alter Design Day Thermostats</t>
+  </si>
+  <si>
+    <t>DOE Ref 1980-2004</t>
   </si>
 </sst>
 </file>
@@ -2582,7 +2582,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2647,6 +2647,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="14">
@@ -2738,7 +2743,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1786">
+  <cellStyleXfs count="1802">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4525,8 +4530,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4632,8 +4653,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1786">
+  <cellStyles count="1802">
     <cellStyle name="Comma" xfId="1749" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -5527,6 +5549,14 @@
     <cellStyle name="Followed Hyperlink" xfId="1781" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1783" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1785" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1787" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1789" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1791" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1793" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1795" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1797" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1799" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1801" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6419,6 +6449,14 @@
     <cellStyle name="Hyperlink" xfId="1780" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1782" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1784" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1786" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1788" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1790" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1792" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1794" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1796" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1798" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1800" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6802,7 +6840,7 @@
         <v>456</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>457</v>
@@ -6824,7 +6862,7 @@
         <v>470</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>472</v>
@@ -6895,7 +6933,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>471</v>
@@ -6906,10 +6944,10 @@
         <v>25</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6917,10 +6955,10 @@
         <v>26</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7081,13 +7119,13 @@
     </row>
     <row r="30" spans="1:5" s="31" customFormat="1">
       <c r="A30" s="31" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B30" s="30">
         <v>1</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D30" s="35"/>
     </row>
@@ -7121,7 +7159,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>31</v>
@@ -7134,7 +7172,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
@@ -7148,7 +7186,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>449</v>
@@ -7159,10 +7197,10 @@
         <v>32</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E40" s="2"/>
     </row>
@@ -7174,7 +7212,7 @@
         <v>34</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="13" t="s">
@@ -7183,13 +7221,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="31" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="31" customFormat="1">
@@ -7223,8 +7261,8 @@
   <dimension ref="A1:Y224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7382,13 +7420,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>731</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>732</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>733</v>
-      </c>
       <c r="D4" s="38" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>68</v>
@@ -7401,16 +7439,16 @@
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
+        <v>769</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>770</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>771</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="6" spans="1:25" s="30" customFormat="1">
@@ -7418,16 +7456,16 @@
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="7" spans="1:25" s="38" customFormat="1">
@@ -7435,7 +7473,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C7" s="38" t="s">
         <v>648</v>
@@ -7463,7 +7501,7 @@
         <v>618</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -7488,7 +7526,7 @@
         <v>618</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>657</v>
+        <v>843</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -7511,7 +7549,7 @@
         <v>618</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I10" s="31"/>
     </row>
@@ -7520,7 +7558,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>655</v>
@@ -7538,7 +7576,7 @@
         <v>21</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>656</v>
@@ -7556,13 +7594,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>68</v>
@@ -7570,33 +7608,35 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" ht="17">
+      <c r="A14" s="30"/>
       <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="31" t="s">
-        <v>662</v>
-      </c>
-      <c r="E14" s="31" t="s">
+      <c r="C14" s="30"/>
+      <c r="D14" s="30" t="s">
+        <v>661</v>
+      </c>
+      <c r="E14" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="31" t="s">
-        <v>766</v>
-      </c>
-      <c r="H14" s="31">
-        <v>12717</v>
-      </c>
-      <c r="I14" s="31"/>
+      <c r="G14" s="30" t="s">
+        <v>765</v>
+      </c>
+      <c r="H14" s="53">
+        <v>104666</v>
+      </c>
+      <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:25" s="43" customFormat="1">
       <c r="B15" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E15" s="43" t="s">
         <v>200</v>
@@ -7624,7 +7664,7 @@
         <v>0.1</v>
       </c>
       <c r="Q15" s="50" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="30" customFormat="1">
@@ -7641,7 +7681,7 @@
         <v>65</v>
       </c>
       <c r="H16" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="43" customFormat="1">
@@ -7649,7 +7689,7 @@
         <v>22</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E17" s="43" t="s">
         <v>204</v>
@@ -7658,10 +7698,10 @@
         <v>64</v>
       </c>
       <c r="G17" s="43" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H17" s="43">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J17" s="43">
         <v>8</v>
@@ -7680,7 +7720,7 @@
         <v>0.1</v>
       </c>
       <c r="Q17" s="50" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="30" customFormat="1">
@@ -7688,10 +7728,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="E18" s="30" t="s">
         <v>740</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>741</v>
       </c>
       <c r="F18" s="30" t="s">
         <v>64</v>
@@ -7705,10 +7745,10 @@
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
+        <v>741</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>742</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>743</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>64</v>
@@ -7722,10 +7762,10 @@
         <v>21</v>
       </c>
       <c r="D20" s="30" t="s">
+        <v>743</v>
+      </c>
+      <c r="E20" s="30" t="s">
         <v>744</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>745</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>64</v>
@@ -7739,10 +7779,10 @@
         <v>21</v>
       </c>
       <c r="D21" s="30" t="s">
+        <v>745</v>
+      </c>
+      <c r="E21" s="30" t="s">
         <v>746</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>747</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>64</v>
@@ -7756,10 +7796,10 @@
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
+        <v>747</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>748</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>749</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>64</v>
@@ -7773,10 +7813,10 @@
         <v>21</v>
       </c>
       <c r="D23" s="30" t="s">
+        <v>749</v>
+      </c>
+      <c r="E23" s="30" t="s">
         <v>750</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>751</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>64</v>
@@ -7790,10 +7830,10 @@
         <v>21</v>
       </c>
       <c r="D24" s="30" t="s">
+        <v>751</v>
+      </c>
+      <c r="E24" s="30" t="s">
         <v>752</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>753</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>64</v>
@@ -7807,10 +7847,10 @@
         <v>21</v>
       </c>
       <c r="D25" s="30" t="s">
+        <v>753</v>
+      </c>
+      <c r="E25" s="30" t="s">
         <v>754</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>755</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>64</v>
@@ -7824,10 +7864,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="30" t="s">
+        <v>755</v>
+      </c>
+      <c r="E26" s="30" t="s">
         <v>756</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>757</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>64</v>
@@ -7841,10 +7881,10 @@
         <v>21</v>
       </c>
       <c r="D27" s="30" t="s">
+        <v>757</v>
+      </c>
+      <c r="E27" s="30" t="s">
         <v>758</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>759</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>64</v>
@@ -7858,10 +7898,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="30" t="s">
+        <v>759</v>
+      </c>
+      <c r="E28" s="30" t="s">
         <v>760</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>761</v>
       </c>
       <c r="F28" s="30" t="s">
         <v>64</v>
@@ -7875,10 +7915,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="30" t="s">
+        <v>761</v>
+      </c>
+      <c r="E29" s="30" t="s">
         <v>762</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>763</v>
       </c>
       <c r="F29" s="30" t="s">
         <v>64</v>
@@ -7892,10 +7932,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="30" t="s">
+        <v>763</v>
+      </c>
+      <c r="E30" s="30" t="s">
         <v>764</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>765</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>64</v>
@@ -7909,13 +7949,13 @@
         <v>1</v>
       </c>
       <c r="B31" s="38" t="s">
+        <v>664</v>
+      </c>
+      <c r="C31" s="38" t="s">
         <v>665</v>
       </c>
-      <c r="C31" s="38" t="s">
-        <v>666</v>
-      </c>
       <c r="D31" s="38" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E31" s="38" t="s">
         <v>68</v>
@@ -7928,10 +7968,10 @@
         <v>21</v>
       </c>
       <c r="D32" s="31" t="s">
+        <v>676</v>
+      </c>
+      <c r="E32" s="31" t="s">
         <v>677</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>678</v>
       </c>
       <c r="F32" s="31" t="s">
         <v>619</v>
@@ -7944,13 +7984,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="38" t="s">
+        <v>816</v>
+      </c>
+      <c r="C33" s="38" t="s">
         <v>817</v>
       </c>
-      <c r="C33" s="38" t="s">
-        <v>818</v>
-      </c>
       <c r="D33" s="38" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>68</v>
@@ -7963,10 +8003,10 @@
         <v>22</v>
       </c>
       <c r="D34" s="43" t="s">
+        <v>784</v>
+      </c>
+      <c r="E34" s="43" t="s">
         <v>785</v>
-      </c>
-      <c r="E34" s="43" t="s">
-        <v>786</v>
       </c>
       <c r="F34" s="43" t="s">
         <v>64</v>
@@ -7991,7 +8031,7 @@
         <v>0.01</v>
       </c>
       <c r="Q34" s="43" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="35" spans="1:17" s="43" customFormat="1">
@@ -7999,10 +8039,10 @@
         <v>22</v>
       </c>
       <c r="D35" s="43" t="s">
+        <v>786</v>
+      </c>
+      <c r="E35" s="43" t="s">
         <v>787</v>
-      </c>
-      <c r="E35" s="43" t="s">
-        <v>788</v>
       </c>
       <c r="F35" s="43" t="s">
         <v>64</v>
@@ -8027,7 +8067,7 @@
         <v>0.01</v>
       </c>
       <c r="Q35" s="43" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="36" spans="1:17" s="38" customFormat="1">
@@ -8035,7 +8075,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C36" s="38" t="s">
         <v>74</v>
@@ -8054,7 +8094,7 @@
         <v>22</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E37" s="43" t="s">
         <v>75</v>
@@ -8063,7 +8103,7 @@
         <v>619</v>
       </c>
       <c r="G37" s="43" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H37" s="43">
         <v>0</v>
@@ -8085,7 +8125,7 @@
         <v>5</v>
       </c>
       <c r="Q37" s="43" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="38" spans="1:17" s="38" customFormat="1">
@@ -8093,7 +8133,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C38" s="38" t="s">
         <v>76</v>
@@ -8112,7 +8152,7 @@
         <v>21</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E39" s="31" t="s">
         <v>77</v>
@@ -8142,7 +8182,7 @@
       </c>
       <c r="P39" s="40"/>
       <c r="Q39" s="31" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -8150,7 +8190,7 @@
         <v>21</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E40" s="31" t="s">
         <v>79</v>
@@ -8159,7 +8199,7 @@
         <v>619</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H40" s="31">
         <v>30</v>
@@ -8178,7 +8218,7 @@
         <v>21</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E41" s="31" t="s">
         <v>81</v>
@@ -8187,10 +8227,10 @@
         <v>618</v>
       </c>
       <c r="G41" s="31" t="s">
+        <v>667</v>
+      </c>
+      <c r="H41" s="31" t="s">
         <v>668</v>
-      </c>
-      <c r="H41" s="31" t="s">
-        <v>669</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
@@ -8200,7 +8240,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C42" s="38" t="s">
         <v>76</v>
@@ -8219,7 +8259,7 @@
         <v>21</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E43" s="31" t="s">
         <v>77</v>
@@ -8249,7 +8289,7 @@
       </c>
       <c r="P43" s="40"/>
       <c r="Q43" s="31" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -8257,7 +8297,7 @@
         <v>21</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E44" s="31" t="s">
         <v>79</v>
@@ -8266,7 +8306,7 @@
         <v>619</v>
       </c>
       <c r="G44" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H44" s="31">
         <v>30</v>
@@ -8285,7 +8325,7 @@
         <v>21</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E45" s="31" t="s">
         <v>81</v>
@@ -8294,7 +8334,7 @@
         <v>618</v>
       </c>
       <c r="G45" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H45" s="31" t="s">
         <v>82</v>
@@ -8307,7 +8347,7 @@
         <v>1</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C46" s="38" t="s">
         <v>76</v>
@@ -8326,7 +8366,7 @@
         <v>21</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E47" s="31" t="s">
         <v>77</v>
@@ -8356,7 +8396,7 @@
       </c>
       <c r="P47" s="40"/>
       <c r="Q47" s="31" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -8364,7 +8404,7 @@
         <v>21</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E48" s="31" t="s">
         <v>79</v>
@@ -8373,7 +8413,7 @@
         <v>619</v>
       </c>
       <c r="G48" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H48" s="31">
         <v>30</v>
@@ -8392,7 +8432,7 @@
         <v>21</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E49" s="31" t="s">
         <v>81</v>
@@ -8401,10 +8441,10 @@
         <v>618</v>
       </c>
       <c r="G49" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H49" s="31" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -8414,7 +8454,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C50" s="38" t="s">
         <v>76</v>
@@ -8433,7 +8473,7 @@
         <v>21</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E51" s="31" t="s">
         <v>77</v>
@@ -8463,7 +8503,7 @@
       </c>
       <c r="P51" s="40"/>
       <c r="Q51" s="31" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -8471,7 +8511,7 @@
         <v>21</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E52" s="31" t="s">
         <v>79</v>
@@ -8480,7 +8520,7 @@
         <v>619</v>
       </c>
       <c r="G52" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H52" s="31">
         <v>30</v>
@@ -8499,7 +8539,7 @@
         <v>21</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E53" s="31" t="s">
         <v>81</v>
@@ -8508,10 +8548,10 @@
         <v>618</v>
       </c>
       <c r="G53" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H53" s="31" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
@@ -8521,13 +8561,13 @@
         <v>1</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D54" s="38" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E54" s="38" t="s">
         <v>68</v>
@@ -8540,16 +8580,16 @@
         <v>21</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F55" s="31" t="s">
         <v>618</v>
       </c>
       <c r="H55" s="31" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I55" s="31"/>
     </row>
@@ -8558,16 +8598,16 @@
         <v>21</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F56" s="31" t="s">
         <v>618</v>
       </c>
       <c r="H56" s="31" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I56" s="31"/>
     </row>
@@ -8576,16 +8616,16 @@
         <v>21</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F57" s="31" t="s">
         <v>618</v>
       </c>
       <c r="H57" s="41" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I57" s="31"/>
     </row>
@@ -8594,16 +8634,16 @@
         <v>21</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F58" s="31" t="s">
         <v>618</v>
       </c>
       <c r="H58" s="41" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I58" s="31"/>
     </row>
@@ -8612,13 +8652,13 @@
         <v>1</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E59" s="38" t="s">
         <v>233</v>
@@ -8631,7 +8671,7 @@
         <v>1</v>
       </c>
       <c r="B60" s="51" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C60" s="51" t="s">
         <v>76</v>
@@ -8648,7 +8688,7 @@
         <v>22</v>
       </c>
       <c r="D61" s="43" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E61" s="43" t="s">
         <v>77</v>
@@ -8676,7 +8716,7 @@
         <v>0.01</v>
       </c>
       <c r="Q61" s="43" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="62" spans="1:17" s="30" customFormat="1">
@@ -8721,7 +8761,7 @@
         <v>1</v>
       </c>
       <c r="B64" s="51" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C64" s="51" t="s">
         <v>76</v>
@@ -8738,7 +8778,7 @@
         <v>22</v>
       </c>
       <c r="D65" s="43" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E65" s="43" t="s">
         <v>77</v>
@@ -8766,7 +8806,7 @@
         <v>0.01</v>
       </c>
       <c r="Q65" s="43" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="66" spans="1:17" s="30" customFormat="1">
@@ -8800,7 +8840,7 @@
         <v>62</v>
       </c>
       <c r="H67" s="30" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I67" s="30" t="s">
         <v>84</v>
@@ -8811,7 +8851,7 @@
         <v>1</v>
       </c>
       <c r="B68" s="51" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C68" s="51" t="s">
         <v>76</v>
@@ -8828,7 +8868,7 @@
         <v>22</v>
       </c>
       <c r="D69" s="43" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E69" s="43" t="s">
         <v>77</v>
@@ -8856,7 +8896,7 @@
         <v>0.01</v>
       </c>
       <c r="Q69" s="43" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="70" spans="1:17" s="30" customFormat="1">
@@ -8890,7 +8930,7 @@
         <v>62</v>
       </c>
       <c r="H71" s="30" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I71" s="30" t="s">
         <v>84</v>
@@ -8939,7 +8979,7 @@
         <v>22</v>
       </c>
       <c r="D74" s="44" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E74" s="43" t="s">
         <v>70</v>
@@ -8967,7 +9007,7 @@
         <v>2.5</v>
       </c>
       <c r="Q74" s="43" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="75" spans="1:17" s="30" customFormat="1">
@@ -9075,7 +9115,7 @@
         <v>22</v>
       </c>
       <c r="D80" s="43" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E80" s="43" t="s">
         <v>46</v>
@@ -9341,7 +9381,7 @@
         <v>22</v>
       </c>
       <c r="D90" s="43" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E90" s="43" t="s">
         <v>330</v>
@@ -9370,7 +9410,7 @@
         <v>2.5</v>
       </c>
       <c r="Q90" s="43" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="91" spans="1:17" s="49" customFormat="1">
@@ -9378,13 +9418,13 @@
         <v>1</v>
       </c>
       <c r="B91" s="49" t="s">
+        <v>822</v>
+      </c>
+      <c r="C91" s="49" t="s">
         <v>823</v>
       </c>
-      <c r="C91" s="49" t="s">
-        <v>824</v>
-      </c>
       <c r="D91" s="49" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E91" s="49" t="s">
         <v>68</v>
@@ -9395,7 +9435,7 @@
         <v>22</v>
       </c>
       <c r="D92" s="43" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E92" s="43" t="s">
         <v>258</v>
@@ -9424,7 +9464,7 @@
         <v>2.5</v>
       </c>
       <c r="Q92" s="43" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="93" spans="1:17" s="49" customFormat="1">
@@ -9432,13 +9472,13 @@
         <v>1</v>
       </c>
       <c r="B93" s="49" t="s">
+        <v>825</v>
+      </c>
+      <c r="C93" s="49" t="s">
         <v>826</v>
       </c>
-      <c r="C93" s="49" t="s">
-        <v>827</v>
-      </c>
       <c r="D93" s="49" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E93" s="49" t="s">
         <v>68</v>
@@ -9449,7 +9489,7 @@
         <v>22</v>
       </c>
       <c r="D94" s="43" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E94" s="43" t="s">
         <v>258</v>
@@ -9478,7 +9518,7 @@
         <v>2.5</v>
       </c>
       <c r="Q94" s="43" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="95" spans="1:17" s="49" customFormat="1">
@@ -9523,7 +9563,7 @@
         <v>22</v>
       </c>
       <c r="D97" s="43" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E97" s="43" t="s">
         <v>288</v>
@@ -9532,7 +9572,7 @@
         <v>64</v>
       </c>
       <c r="G97" s="43" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H97" s="43">
         <v>0</v>
@@ -9555,7 +9595,7 @@
         <v>2.5</v>
       </c>
       <c r="Q97" s="43" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="98" spans="1:17" s="30" customFormat="1">
@@ -9563,7 +9603,7 @@
         <v>21</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E98" s="30" t="s">
         <v>48</v>
@@ -9572,7 +9612,7 @@
         <v>64</v>
       </c>
       <c r="G98" s="30" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H98" s="30">
         <v>0</v>
@@ -9583,7 +9623,7 @@
         <v>21</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E99" s="30" t="s">
         <v>50</v>
@@ -9592,7 +9632,7 @@
         <v>64</v>
       </c>
       <c r="G99" s="30" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H99" s="30">
         <v>0</v>
@@ -9603,7 +9643,7 @@
         <v>21</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E100" s="30" t="s">
         <v>52</v>
@@ -9612,7 +9652,7 @@
         <v>65</v>
       </c>
       <c r="G100" s="30" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H100" s="30">
         <v>0</v>
@@ -9623,7 +9663,7 @@
         <v>21</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E101" s="30" t="s">
         <v>54</v>
@@ -9640,7 +9680,7 @@
         <v>21</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E102" s="30" t="s">
         <v>56</v>
@@ -9649,7 +9689,7 @@
         <v>65</v>
       </c>
       <c r="G102" s="30" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H102" s="30">
         <v>15</v>
@@ -9660,7 +9700,7 @@
         <v>21</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E103" s="30" t="s">
         <v>58</v>
@@ -9669,7 +9709,7 @@
         <v>64</v>
       </c>
       <c r="G103" s="30" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H103" s="30">
         <v>0</v>
@@ -9680,7 +9720,7 @@
         <v>21</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E104" s="30" t="s">
         <v>60</v>
@@ -9689,7 +9729,7 @@
         <v>65</v>
       </c>
       <c r="G104" s="30" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H104" s="30">
         <v>1</v>
@@ -9703,10 +9743,10 @@
         <v>187</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D105" s="38" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E105" s="38" t="s">
         <v>68</v>
@@ -9719,7 +9759,7 @@
         <v>22</v>
       </c>
       <c r="D106" s="43" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E106" s="43" t="s">
         <v>190</v>
@@ -9728,7 +9768,7 @@
         <v>64</v>
       </c>
       <c r="G106" s="43" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H106" s="43">
         <v>1</v>
@@ -9751,7 +9791,7 @@
         <v>2.5</v>
       </c>
       <c r="Q106" s="43" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="107" spans="1:17" s="43" customFormat="1">
@@ -9759,7 +9799,7 @@
         <v>22</v>
       </c>
       <c r="D107" s="43" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E107" s="43" t="s">
         <v>192</v>
@@ -9768,7 +9808,7 @@
         <v>64</v>
       </c>
       <c r="G107" s="43" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H107" s="43">
         <v>-1</v>
@@ -9791,7 +9831,7 @@
         <v>2.5</v>
       </c>
       <c r="Q107" s="43" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="108" spans="1:17">
@@ -9799,7 +9839,7 @@
         <v>21</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E108" s="31" t="s">
         <v>194</v>
@@ -10522,14 +10562,14 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="30" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>64</v>
@@ -10553,14 +10593,14 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="30" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>64</v>
@@ -10583,14 +10623,14 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="30" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>64</v>
@@ -10613,14 +10653,14 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="30" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>64</v>
@@ -10643,14 +10683,14 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="30" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>64</v>
@@ -10673,14 +10713,14 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="30" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>64</v>
@@ -10703,14 +10743,14 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="30" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>64</v>
@@ -10733,14 +10773,14 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="30" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>64</v>
@@ -10763,14 +10803,14 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="30" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>64</v>
@@ -10793,14 +10833,14 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="30" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>64</v>
@@ -10823,14 +10863,14 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="30" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>64</v>
@@ -10853,14 +10893,14 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="30" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>64</v>
@@ -10884,14 +10924,14 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="30" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>64</v>
@@ -10914,14 +10954,14 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="30" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>64</v>
@@ -10944,14 +10984,14 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="30" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>64</v>
@@ -10974,14 +11014,14 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="30" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E23" s="30" t="s">
         <v>64</v>
@@ -11004,14 +11044,14 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="30" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>64</v>
@@ -11034,14 +11074,14 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="30" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E25" s="30" t="s">
         <v>64</v>
@@ -11064,14 +11104,14 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="30" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>64</v>
@@ -11094,14 +11134,14 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="30" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>64</v>
@@ -11124,14 +11164,14 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="30" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E28" s="30" t="s">
         <v>64</v>
@@ -11154,14 +11194,14 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="30" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E29" s="30" t="s">
         <v>64</v>
@@ -19841,7 +19881,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>557</v>
